--- a/Matching arterycodes to TCL/issues and manual corrections.xlsx
+++ b/Matching arterycodes to TCL/issues and manual corrections.xlsx
@@ -9,13 +9,17 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13770" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13770"/>
   </bookViews>
   <sheets>
-    <sheet name="case 2 - dist" sheetId="2" r:id="rId1"/>
-    <sheet name="case 3 - tcs" sheetId="3" r:id="rId2"/>
-    <sheet name="case 5" sheetId="1" r:id="rId3"/>
+    <sheet name="case 2 - h-dist" sheetId="2" r:id="rId1"/>
+    <sheet name="case 3+4 - tcs" sheetId="3" r:id="rId2"/>
+    <sheet name="case 3+4 - intersections" sheetId="4" r:id="rId3"/>
+    <sheet name="case 5" sheetId="1" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'case 2 - h-dist'!$F$1:$F$201</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="655">
   <si>
     <t>Arterycode</t>
   </si>
@@ -1574,6 +1578,423 @@
   </si>
   <si>
     <t>cannot tell</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(308242.1617705 4842533.78832351)</t>
+  </si>
+  <si>
+    <t>DUFFERIN ST N/B S OF YORKDALE MALL</t>
+  </si>
+  <si>
+    <t>KIPLING AVE N/B S OF PANORAMA COURT</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(311842.324923 4848727.72820637)</t>
+  </si>
+  <si>
+    <t>FINCH AVE E/B W OF KENNETH AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(314060.118270858 4833654.70005974)</t>
+  </si>
+  <si>
+    <t>FRONT ST W/B E OF LOWER SIMCOE ST</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(320147.68757059 4850716.0047207)</t>
+  </si>
+  <si>
+    <t>FINCH AVE W/B W OF WEST HIGHLAND CREEK</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(307623.057007913 4833546.27043362)</t>
+  </si>
+  <si>
+    <t>COLBORNE LODGE DR S/B S OF HILLSIDE RD</t>
+  </si>
+  <si>
+    <t>COLBORNE LODGE DR N/B S OF HILLSIDE RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(309606.038278434 4835165.59419323)</t>
+  </si>
+  <si>
+    <t>LN S OF BLOOR ST E/B E OF MARGUERETTA ST</t>
+  </si>
+  <si>
+    <t>LN S OF BLOOR ST W/B E OF MARGUERETTA ST</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(320518.667061868 4835986.5670772)</t>
+  </si>
+  <si>
+    <t>LAKE SHORE BLVD W/B E OF MIDBLOCK TCS - PX 1951 (W OF KEW B)</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(303872.101724673 4839599.59783325)</t>
+  </si>
+  <si>
+    <t>WESTON RD N/B S OF MIDBLOCK TCS - (PX 1804)</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(303609.013545144 4839731.71956269)</t>
+  </si>
+  <si>
+    <t>WESTON RD S/B N OF MIDBLOCK TCS -  (PX 1804)</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(303514.237461658 4835024.35165406)</t>
+  </si>
+  <si>
+    <t>ROYAL YORK RD N/B S OF MIDBLOCK TCS - PX 2123 (S OF GOVT RD)</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(312811.927974489 4835230.28993676)</t>
+  </si>
+  <si>
+    <t>SPADINA CR N/B S OF MIDBLOCK TCS - PX 2117 ( S OF RUSSELL ST</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(324926.002401105 4843335.99954186)</t>
+  </si>
+  <si>
+    <t>DANFORTH RD S/B N OF GLENSHEPHARD DR MID BLOCK TCS</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(324857.992931275 4843223.99959878)</t>
+  </si>
+  <si>
+    <t>DANFORTH RD N/B S OF GLENSHEPHARD DR MID BLOCK TCS</t>
+  </si>
+  <si>
+    <t>Case</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(307732.680519621 4845366.83983491)</t>
+  </si>
+  <si>
+    <t>W R ALLEN RD N/B S OF SHEPPARD AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(315085.976578167 4835721.45354107)</t>
+  </si>
+  <si>
+    <t>LN N/B S OF CARLTON ST (GENERAL HOSPITAL)</t>
+  </si>
+  <si>
+    <t>LN S/B S OF CARLTON ST (GENERAL HOSPITAL)</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(320098.295126037 4835832.753422)</t>
+  </si>
+  <si>
+    <t># 41 NORTHERN DANCER BLVD N/B N OF BOARDWALK DR</t>
+  </si>
+  <si>
+    <t># 41 NORTHERN DANCER BLVD S/B N OF BOARDWALK DR</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(319990.535791428 4836189.33507845)</t>
+  </si>
+  <si>
+    <t># 91 NORTHERN DANCER BLVD N/B S OF QUEEN ST</t>
+  </si>
+  <si>
+    <t># 91 NORTHERN DANCER BLVD S/B S OF QUEEN ST</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(314412.554974 4833227.30211639)</t>
+  </si>
+  <si>
+    <t>RAMP YORK ST OFF RAMP E/B RT TURNS TO HARBOUR ST</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(317476.73 4837955.13)</t>
+  </si>
+  <si>
+    <t>LNWY E OF WOODYCREST SB S OF ALDWYCH AVE</t>
+  </si>
+  <si>
+    <t>LNWY E OF WOODYCREST AVE N/B S OF ALDWYCH AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;POINT(317478.540653344 4837955.62188508)</t>
+  </si>
+  <si>
+    <t>LANE NB EAST OF WOODYCRES AVE SOUTH OF ALDWYCH AVE</t>
+  </si>
+  <si>
+    <t>LANE SB EAST OF WOODYCRES AVE NORTH OF SELKIRK ST</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(316260.267924844 4845736.17262337,316517.705833077 4844944.0222982)</t>
+  </si>
+  <si>
+    <t>SCARSDALE RD S/B S OF YORK MILLS RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(316517.705833077 4844944.0222982,316260.267924844 4845736.17262337)</t>
+  </si>
+  <si>
+    <t>SCARSDALE RD N/B S OF YORK MILLS RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(316133.70184782 4838839.57035986,315993.104951126 4838372.60890416)</t>
+  </si>
+  <si>
+    <t>DON VALLEY PKWY S/B AT POTTERY RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(299755.759481452 4832633.71941957,300031.319500687 4831791.48464803)</t>
+  </si>
+  <si>
+    <t>THE WEST MALL S/B N OF DUNDAS ST W</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(300031.319500687 4831791.48464803,299755.759481452 4832633.71941957)</t>
+  </si>
+  <si>
+    <t>THE WEST MALL N/B S OF BLOOR ST W</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(324165.071704709 4839662.36340542,324264.450490944 4839707.96745404)</t>
+  </si>
+  <si>
+    <t>DANFORTH AVE E/B W OF VARIETY VILLAGE</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(316392.311053168 4834138.30299283,316906.098058232 4834221.03033716)</t>
+  </si>
+  <si>
+    <t>F G GARDINER EXPY E/B E OF CHERRY ST N</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(316967.863359637 4852456.17920914,316976.565602289 4852144.68155514)</t>
+  </si>
+  <si>
+    <t>WOODBINE AVE SB S OF STEELES AVE E</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(319252.156688788 4850426.56902531,319324.752364224 4850448.00092798)</t>
+  </si>
+  <si>
+    <t>FINCH AVE E/B W OF BRIDLETOWN CIR W</t>
+  </si>
+  <si>
+    <t>Westbound</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(306304.036230353 4836881.2865082,305818.360356057 4836751.8450167)</t>
+  </si>
+  <si>
+    <t>TERRY RD W/B W OF SYMES RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(305818.360356057 4836751.8450167,306304.036230353 4836881.2865082)</t>
+  </si>
+  <si>
+    <t>TERRY RD E/B W OF SYMES RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(304677.475722881 4846984.01340363,305243.533923858 4847154.45853533)</t>
+  </si>
+  <si>
+    <t>MURRAY ROSS PKWY E/B E OF SENTINEL RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(305243.533923858 4847154.45853533,304677.475722881 4846984.01340363)</t>
+  </si>
+  <si>
+    <t>MURRAY ROSS PKWY W/B W OF SENTINEL RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(316839.598076938 4834205.49895832,316385.761687608 4834150.88410975)</t>
+  </si>
+  <si>
+    <t>F G GARDINER EXPY W/B E OF CHERRY ST N</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(319374.120063063 4847173.24020272,319324.150218524 4847346.55558924)</t>
+  </si>
+  <si>
+    <t>VICTORIA PARK AVE N/B TO HIGHWAY 401 W/B</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(307601.247785569 4832686.37409412,308100.096628126 4832864.27988817)</t>
+  </si>
+  <si>
+    <t>LAKE SHORE BLVD E/B W OF COLBORNE LODGE DR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(311750.955499434 4832184.87957267,311257.13828533 4832057.22824009)</t>
+  </si>
+  <si>
+    <t>LAKE SHORE BLVD W/B E OF ONTARIO DR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(309727.67170986 4836192.585367,309298.317079955 4836099.42709664)</t>
+  </si>
+  <si>
+    <t>LN S OF DUPONT ST W/B E OF EMERSON AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(309298.317079955 4836099.42709664,309727.67170986 4836192.585367)</t>
+  </si>
+  <si>
+    <t>LN S OF DUPONT ST E/B E OF EMERSON AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(305181.397436747 4837750.44366985,305472.242058481 4838007.36647883)</t>
+  </si>
+  <si>
+    <t>ASTORIA AVE E/B W OF BAYLISS AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(305472.242058481 4838007.36647883,305181.397436747 4837750.44366985)</t>
+  </si>
+  <si>
+    <t>ASTORIA AVE W/B W OF BAYLISS AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(306081.827969863 4835250.58173822,305959.097478463 4835663.39838707)</t>
+  </si>
+  <si>
+    <t>WINDERMERE AVE N/B S OF ST JOHNS RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(305959.097478463 4835663.39838707,306081.827969863 4835250.58173822)</t>
+  </si>
+  <si>
+    <t>WINDERMERE AVE S/B N OF ANNETTE ST</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(326277.629780756 4846282.00108069,326540.058074586 4846357.40777511)</t>
+  </si>
+  <si>
+    <t>LAWRENCE AVE E/B W OF CEDARBRAE MALL W TCS</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(326540.058074586 4846357.40777511,326277.629780756 4846282.00108069)</t>
+  </si>
+  <si>
+    <t>LAWRENCE AVE W/B E OF GREENBRAE CRCT</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(322853.227184124 4853766.61554648,322808.404448035 4853905.46787345)</t>
+  </si>
+  <si>
+    <t>MCCOWAN RD N/B S OF ALTON TOWERS CRCL N</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(313599.130370267 4832888.49203766,313507.101061002 4832862.689747)</t>
+  </si>
+  <si>
+    <t>QUEENS QUAY W/B E OF LOWER SPADINA AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(313507.101061002 4832862.689747,313599.130370267 4832888.49203766)</t>
+  </si>
+  <si>
+    <t>QUEENS QUAY E/B W OF SPADINA TRANSIT LOOP</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(320778.942478606 4849581.01395899,320890.009490281 4849230.6428539)</t>
+  </si>
+  <si>
+    <t>BIRCHMOUNT RD S/B N OF STEPHEN LEACOCK C I</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(305622.910460653 4835968.41546574,305732.92990378 4835595.96240027)</t>
+  </si>
+  <si>
+    <t>PRISCILLA AVE S/B N OF ST JOHNS RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(305732.92990378 4835595.96240027,305622.910460653 4835968.41546574)</t>
+  </si>
+  <si>
+    <t>PRISCILLA AVE N/B N OF ST JOHNS RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(311095.425046275 4844216.00766684,311077.682369549 4844273.37275957)</t>
+  </si>
+  <si>
+    <t>AVENUE RD N/B N OF WILSON AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(311077.682369549 4844273.37275957,311095.425046275 4844216.00766684)</t>
+  </si>
+  <si>
+    <t>AVENUE RD S/B N OF WILSON AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(298170.375841583 4844593.27115937,297803.009224506 4844591.94104128)</t>
+  </si>
+  <si>
+    <t>FINCH AVE W/B E OF ALBION MALL</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(297803.009224506 4844591.94104128,298170.375841583 4844593.27115937)</t>
+  </si>
+  <si>
+    <t>FINCH AVE E/B W OF KIPLING AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(302699.666306524 4830694.59726904,302664.923324483 4830883.09400332)</t>
+  </si>
+  <si>
+    <t>KIPLING AVE N/B S OF GARDINER EXPWY WB OFF RAMP SIGNAL</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(329281.066544428 4845191.99431255,329711.567725735 4845322.00585465)</t>
+  </si>
+  <si>
+    <t>GUILDWOOD PKWY E/B W OF NAVARRE CRES</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(329711.567725735 4845322.00585465,329281.066544428 4845191.99431255)</t>
+  </si>
+  <si>
+    <t>GUILDWOOD PKWY W/B E OF CHANCERY LANE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(306875.992159763 4832351.50436521,306649.469896517 4832130.99478891)</t>
+  </si>
+  <si>
+    <t>F G GARDINER EXPY W/B W OF HUMBER RIVER</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(305498.249803583 4842517.02683547,305671.46155094 4842572.72177993)</t>
+  </si>
+  <si>
+    <t>WILSON AVE E/B W OF MTO DRIVEWAY</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(305671.46155094 4842572.72177993,305498.249803583 4842517.02683547)</t>
+  </si>
+  <si>
+    <t>WILSON AVE W/B E OF JULIAN RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(324240.628617219 4846711.99925487,324221.590914809 4846779.59525588)</t>
+  </si>
+  <si>
+    <t>BRIMLEY RD N/B N OF APPLEFIELD DR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(324221.590914809 4846779.59525588,324240.628617219 4846711.99925487)</t>
+  </si>
+  <si>
+    <t>BRIMLEY RD S/B N OF APPLEFIELD DR</t>
+  </si>
+  <si>
+    <t>wrong desc w/b E</t>
+  </si>
+  <si>
+    <t>wrong desc: geometry on lake shore blvd</t>
   </si>
 </sst>
 </file>
@@ -1893,10 +2314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H201"/>
+  <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1907,9 +2328,11 @@
     <col min="4" max="4" width="57.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="61.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="33.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1931,8 +2354,29 @@
       <c r="G1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>6</v>
+      </c>
+      <c r="O1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>15841</v>
       </c>
@@ -1951,8 +2395,32 @@
       <c r="F2" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2">
+        <v>28619</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" t="s">
+        <v>212</v>
+      </c>
+      <c r="M2">
+        <v>20145215</v>
+      </c>
+      <c r="N2" t="s">
+        <v>213</v>
+      </c>
+      <c r="O2">
+        <v>1238.86786200816</v>
+      </c>
+      <c r="P2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>15842</v>
       </c>
@@ -1971,8 +2439,32 @@
       <c r="F3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>28617</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" t="s">
+        <v>214</v>
+      </c>
+      <c r="M3">
+        <v>20145215</v>
+      </c>
+      <c r="N3" t="s">
+        <v>215</v>
+      </c>
+      <c r="O3">
+        <v>1238.86786200816</v>
+      </c>
+      <c r="P3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3504</v>
       </c>
@@ -1994,19 +2486,43 @@
       <c r="G4">
         <v>14304138</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>3504</v>
+      </c>
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+      <c r="M4">
+        <v>14308163</v>
+      </c>
+      <c r="N4" t="s">
+        <v>19</v>
+      </c>
+      <c r="O4">
+        <v>862.74635180677001</v>
+      </c>
+      <c r="P4">
+        <v>14304138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>3663</v>
+        <v>3661</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>11467214</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>579.69414023687898</v>
@@ -2014,19 +2530,43 @@
       <c r="F5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>27562</v>
+      </c>
+      <c r="J5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" t="s">
+        <v>565</v>
+      </c>
+      <c r="M5">
+        <v>30084195</v>
+      </c>
+      <c r="N5" t="s">
+        <v>566</v>
+      </c>
+      <c r="O5">
+        <v>807.09623419371906</v>
+      </c>
+      <c r="P5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>3661</v>
+        <v>3663</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C6">
         <v>11467214</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>579.69414023687898</v>
@@ -2034,8 +2574,32 @@
       <c r="F6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>21091</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>14</v>
+      </c>
+      <c r="L6" t="s">
+        <v>567</v>
+      </c>
+      <c r="M6">
+        <v>30084195</v>
+      </c>
+      <c r="N6" t="s">
+        <v>568</v>
+      </c>
+      <c r="O6">
+        <v>807.09623419371906</v>
+      </c>
+      <c r="P6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>23909</v>
       </c>
@@ -2054,8 +2618,32 @@
       <c r="F7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>37169</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>569</v>
+      </c>
+      <c r="M7">
+        <v>30073952</v>
+      </c>
+      <c r="N7" t="s">
+        <v>570</v>
+      </c>
+      <c r="O7">
+        <v>737.307085620576</v>
+      </c>
+      <c r="P7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>23910</v>
       </c>
@@ -2074,8 +2662,32 @@
       <c r="F8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>37295</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>571</v>
+      </c>
+      <c r="M8">
+        <v>20110446</v>
+      </c>
+      <c r="N8" t="s">
+        <v>572</v>
+      </c>
+      <c r="O8">
+        <v>727.16426329913099</v>
+      </c>
+      <c r="P8" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>22873</v>
       </c>
@@ -2094,19 +2706,43 @@
       <c r="F9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>37296</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
+        <v>14</v>
+      </c>
+      <c r="L9" t="s">
+        <v>573</v>
+      </c>
+      <c r="M9">
+        <v>20110446</v>
+      </c>
+      <c r="N9" t="s">
+        <v>574</v>
+      </c>
+      <c r="O9">
+        <v>727.16426329913099</v>
+      </c>
+      <c r="P9" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10">
         <v>14673478</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10">
         <v>382.56077032795503</v>
@@ -2114,19 +2750,43 @@
       <c r="F10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>31473</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10">
+        <v>30004693</v>
+      </c>
+      <c r="N10" t="s">
+        <v>71</v>
+      </c>
+      <c r="O10">
+        <v>638.60255656874494</v>
+      </c>
+      <c r="P10">
+        <v>30004696</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <v>14673478</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11">
         <v>382.56077032795503</v>
@@ -2134,8 +2794,32 @@
       <c r="F11" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>31472</v>
+      </c>
+      <c r="J11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K11" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" t="s">
+        <v>69</v>
+      </c>
+      <c r="M11">
+        <v>30004693</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11">
+        <v>638.60255656874494</v>
+      </c>
+      <c r="P11" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>35346</v>
       </c>
@@ -2157,8 +2841,32 @@
       <c r="G12">
         <v>30064523</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>32962</v>
+      </c>
+      <c r="J12" t="s">
+        <v>2</v>
+      </c>
+      <c r="K12" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" t="s">
+        <v>384</v>
+      </c>
+      <c r="M12">
+        <v>30042193</v>
+      </c>
+      <c r="N12" t="s">
+        <v>385</v>
+      </c>
+      <c r="O12">
+        <v>573.91125734714399</v>
+      </c>
+      <c r="P12" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>35347</v>
       </c>
@@ -2180,11 +2888,32 @@
       <c r="G13">
         <v>30064523</v>
       </c>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>23107</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" t="s">
+        <v>575</v>
+      </c>
+      <c r="M13">
+        <v>12336153</v>
+      </c>
+      <c r="N13" t="s">
+        <v>576</v>
+      </c>
+      <c r="O13">
+        <v>502.92622588128899</v>
+      </c>
+      <c r="P13">
+        <v>112765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6522</v>
       </c>
@@ -2203,8 +2932,32 @@
       <c r="F14" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>3172</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" t="s">
+        <v>577</v>
+      </c>
+      <c r="L14" t="s">
+        <v>578</v>
+      </c>
+      <c r="M14">
+        <v>30085893</v>
+      </c>
+      <c r="N14" t="s">
+        <v>579</v>
+      </c>
+      <c r="O14">
+        <v>494.22238493073797</v>
+      </c>
+      <c r="P14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>37244</v>
       </c>
@@ -2223,8 +2976,32 @@
       <c r="F15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>36363</v>
+      </c>
+      <c r="J15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L15" t="s">
+        <v>580</v>
+      </c>
+      <c r="M15">
+        <v>436232</v>
+      </c>
+      <c r="N15" t="s">
+        <v>581</v>
+      </c>
+      <c r="O15">
+        <v>487.99306516050399</v>
+      </c>
+      <c r="P15">
+        <v>436109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1601</v>
       </c>
@@ -2243,8 +3020,32 @@
       <c r="F16" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>6559</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" t="s">
+        <v>582</v>
+      </c>
+      <c r="M16">
+        <v>30073908</v>
+      </c>
+      <c r="N16" t="s">
+        <v>583</v>
+      </c>
+      <c r="O16">
+        <v>485.985869828023</v>
+      </c>
+      <c r="P16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3564</v>
       </c>
@@ -2263,8 +3064,32 @@
       <c r="F17" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>24887</v>
+      </c>
+      <c r="J17" t="s">
+        <v>584</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17" t="s">
+        <v>585</v>
+      </c>
+      <c r="M17">
+        <v>30068001</v>
+      </c>
+      <c r="N17" t="s">
+        <v>586</v>
+      </c>
+      <c r="O17">
+        <v>480.13265831002201</v>
+      </c>
+      <c r="P17">
+        <v>30060510</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>27357</v>
       </c>
@@ -2286,22 +3111,43 @@
       <c r="G18">
         <v>30038153</v>
       </c>
-      <c r="H18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>24886</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" t="s">
+        <v>10</v>
+      </c>
+      <c r="L18" t="s">
+        <v>587</v>
+      </c>
+      <c r="M18">
+        <v>30068001</v>
+      </c>
+      <c r="N18" t="s">
+        <v>588</v>
+      </c>
+      <c r="O18">
+        <v>480.13265831002201</v>
+      </c>
+      <c r="P18">
+        <v>30060510</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>3662</v>
+        <v>3636</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C19">
         <v>11467214</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19">
         <v>360.100817434715</v>
@@ -2309,19 +3155,43 @@
       <c r="F19" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>1601</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
+      </c>
+      <c r="K19" t="s">
+        <v>10</v>
+      </c>
+      <c r="L19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19">
+        <v>20059039</v>
+      </c>
+      <c r="N19" t="s">
+        <v>56</v>
+      </c>
+      <c r="O19">
+        <v>471.73174159784003</v>
+      </c>
+      <c r="P19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>3636</v>
+        <v>3662</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>11467214</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>360.100817434715</v>
@@ -2329,8 +3199,32 @@
       <c r="F20" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>3564</v>
+      </c>
+      <c r="J20" t="s">
+        <v>584</v>
+      </c>
+      <c r="K20" t="s">
+        <v>577</v>
+      </c>
+      <c r="L20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20">
+        <v>20059039</v>
+      </c>
+      <c r="N20" t="s">
+        <v>54</v>
+      </c>
+      <c r="O20">
+        <v>471.73174159784003</v>
+      </c>
+      <c r="P20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>27185</v>
       </c>
@@ -2352,11 +3246,32 @@
       <c r="G21">
         <v>20051259</v>
       </c>
-      <c r="H21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>16227</v>
+      </c>
+      <c r="J21" t="s">
+        <v>584</v>
+      </c>
+      <c r="K21" t="s">
+        <v>577</v>
+      </c>
+      <c r="L21" t="s">
+        <v>374</v>
+      </c>
+      <c r="M21">
+        <v>11485087</v>
+      </c>
+      <c r="N21" t="s">
+        <v>375</v>
+      </c>
+      <c r="O21">
+        <v>464.033098788936</v>
+      </c>
+      <c r="P21" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>27186</v>
       </c>
@@ -2378,22 +3293,43 @@
       <c r="G22">
         <v>20051259</v>
       </c>
-      <c r="H22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>2812</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
+      </c>
+      <c r="K22" t="s">
+        <v>10</v>
+      </c>
+      <c r="L22" t="s">
+        <v>372</v>
+      </c>
+      <c r="M22">
+        <v>11485087</v>
+      </c>
+      <c r="N22" t="s">
+        <v>373</v>
+      </c>
+      <c r="O22">
+        <v>464.033098788936</v>
+      </c>
+      <c r="P22" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>12772</v>
+        <v>12771</v>
       </c>
       <c r="B23" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C23">
-        <v>108747</v>
+        <v>108748</v>
       </c>
       <c r="D23" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E23">
         <v>353.11914989992999</v>
@@ -2404,19 +3340,43 @@
       <c r="G23">
         <v>30029984</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>20810</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
+      </c>
+      <c r="K23" t="s">
+        <v>577</v>
+      </c>
+      <c r="L23" t="s">
+        <v>589</v>
+      </c>
+      <c r="M23">
+        <v>20033126</v>
+      </c>
+      <c r="N23" t="s">
+        <v>590</v>
+      </c>
+      <c r="O23">
+        <v>455.99024621528798</v>
+      </c>
+      <c r="P23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>12771</v>
+        <v>12772</v>
       </c>
       <c r="B24" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C24">
-        <v>108748</v>
+        <v>108747</v>
       </c>
       <c r="D24" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E24">
         <v>353.11914989992999</v>
@@ -2427,8 +3387,35 @@
       <c r="G24">
         <v>30029984</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>20809</v>
+      </c>
+      <c r="J24" t="s">
+        <v>584</v>
+      </c>
+      <c r="K24" t="s">
+        <v>10</v>
+      </c>
+      <c r="L24" t="s">
+        <v>591</v>
+      </c>
+      <c r="M24">
+        <v>20033126</v>
+      </c>
+      <c r="N24" t="s">
+        <v>592</v>
+      </c>
+      <c r="O24">
+        <v>455.99024621528798</v>
+      </c>
+      <c r="P24" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2877</v>
       </c>
@@ -2447,8 +3434,35 @@
       <c r="F25" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H25" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25">
+        <v>3173</v>
+      </c>
+      <c r="J25" t="s">
+        <v>584</v>
+      </c>
+      <c r="K25" t="s">
+        <v>577</v>
+      </c>
+      <c r="L25" t="s">
+        <v>593</v>
+      </c>
+      <c r="M25">
+        <v>30085896</v>
+      </c>
+      <c r="N25" t="s">
+        <v>594</v>
+      </c>
+      <c r="O25">
+        <v>438.87028091428698</v>
+      </c>
+      <c r="P25" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2879</v>
       </c>
@@ -2467,8 +3481,35 @@
       <c r="F26" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H26" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26">
+        <v>3079</v>
+      </c>
+      <c r="J26" t="s">
+        <v>584</v>
+      </c>
+      <c r="K26" t="s">
+        <v>577</v>
+      </c>
+      <c r="L26" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26">
+        <v>20259494</v>
+      </c>
+      <c r="N26" t="s">
+        <v>90</v>
+      </c>
+      <c r="O26">
+        <v>432.818127186472</v>
+      </c>
+      <c r="P26" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24923</v>
       </c>
@@ -2490,8 +3531,32 @@
       <c r="G27">
         <v>20113061</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>23588</v>
+      </c>
+      <c r="J27" t="s">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" t="s">
+        <v>238</v>
+      </c>
+      <c r="M27">
+        <v>443573</v>
+      </c>
+      <c r="N27" t="s">
+        <v>239</v>
+      </c>
+      <c r="O27">
+        <v>426.77893935341598</v>
+      </c>
+      <c r="P27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>31472</v>
       </c>
@@ -2513,8 +3578,32 @@
       <c r="G28">
         <v>30004693</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>1606</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
+      </c>
+      <c r="K28" t="s">
+        <v>10</v>
+      </c>
+      <c r="L28" t="s">
+        <v>210</v>
+      </c>
+      <c r="M28">
+        <v>20052990</v>
+      </c>
+      <c r="N28" t="s">
+        <v>211</v>
+      </c>
+      <c r="O28">
+        <v>421.37324188131203</v>
+      </c>
+      <c r="P28" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>31473</v>
       </c>
@@ -2536,8 +3625,32 @@
       <c r="G29">
         <v>30004696</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>3526</v>
+      </c>
+      <c r="J29" t="s">
+        <v>15</v>
+      </c>
+      <c r="K29" t="s">
+        <v>14</v>
+      </c>
+      <c r="L29" t="s">
+        <v>595</v>
+      </c>
+      <c r="M29">
+        <v>108619</v>
+      </c>
+      <c r="N29" t="s">
+        <v>596</v>
+      </c>
+      <c r="O29">
+        <v>420.17824963662599</v>
+      </c>
+      <c r="P29">
+        <v>108379</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1649</v>
       </c>
@@ -2556,8 +3669,32 @@
       <c r="F30" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>835</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
+      </c>
+      <c r="K30" t="s">
+        <v>10</v>
+      </c>
+      <c r="L30" t="s">
+        <v>597</v>
+      </c>
+      <c r="M30">
+        <v>30065733</v>
+      </c>
+      <c r="N30" t="s">
+        <v>598</v>
+      </c>
+      <c r="O30">
+        <v>419.43730104730798</v>
+      </c>
+      <c r="P30" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>20435</v>
       </c>
@@ -2576,19 +3713,43 @@
       <c r="F31" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>852</v>
+      </c>
+      <c r="J31" t="s">
+        <v>584</v>
+      </c>
+      <c r="K31" t="s">
+        <v>577</v>
+      </c>
+      <c r="L31" t="s">
+        <v>599</v>
+      </c>
+      <c r="M31">
+        <v>30016282</v>
+      </c>
+      <c r="N31" t="s">
+        <v>600</v>
+      </c>
+      <c r="O31">
+        <v>415.02233533771403</v>
+      </c>
+      <c r="P31" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>23920</v>
+        <v>676</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C32">
         <v>439282</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E32">
         <v>327.22398912434102</v>
@@ -2596,19 +3757,43 @@
       <c r="F32" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>1109</v>
+      </c>
+      <c r="J32" t="s">
+        <v>584</v>
+      </c>
+      <c r="K32" t="s">
+        <v>577</v>
+      </c>
+      <c r="L32" t="s">
+        <v>317</v>
+      </c>
+      <c r="M32">
+        <v>649</v>
+      </c>
+      <c r="N32" t="s">
+        <v>318</v>
+      </c>
+      <c r="O32">
+        <v>392.72438972309402</v>
+      </c>
+      <c r="P32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>676</v>
+        <v>23920</v>
       </c>
       <c r="B33" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C33">
         <v>439282</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E33">
         <v>327.22398912434102</v>
@@ -2616,8 +3801,32 @@
       <c r="F33" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>27469</v>
+      </c>
+      <c r="J33" t="s">
+        <v>584</v>
+      </c>
+      <c r="K33" t="s">
+        <v>577</v>
+      </c>
+      <c r="L33" t="s">
+        <v>601</v>
+      </c>
+      <c r="M33">
+        <v>14063455</v>
+      </c>
+      <c r="N33" t="s">
+        <v>602</v>
+      </c>
+      <c r="O33">
+        <v>389.01412964525798</v>
+      </c>
+      <c r="P33" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>34510</v>
       </c>
@@ -2639,8 +3848,32 @@
       <c r="G34">
         <v>20364355</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>27468</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
+      </c>
+      <c r="K34" t="s">
+        <v>577</v>
+      </c>
+      <c r="L34" t="s">
+        <v>603</v>
+      </c>
+      <c r="M34">
+        <v>14063455</v>
+      </c>
+      <c r="N34" t="s">
+        <v>604</v>
+      </c>
+      <c r="O34">
+        <v>389.01412964525798</v>
+      </c>
+      <c r="P34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3079</v>
       </c>
@@ -2662,28 +3895,79 @@
       <c r="G35">
         <v>20259494</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>15635</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
+      </c>
+      <c r="K35" t="s">
+        <v>10</v>
+      </c>
+      <c r="L35" t="s">
+        <v>605</v>
+      </c>
+      <c r="M35">
+        <v>30007221</v>
+      </c>
+      <c r="N35" t="s">
+        <v>606</v>
+      </c>
+      <c r="O35">
+        <v>381.60893739934801</v>
+      </c>
+      <c r="P35" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>23587</v>
+        <v>21000</v>
       </c>
       <c r="B36" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C36">
-        <v>443573</v>
+        <v>443972</v>
       </c>
       <c r="D36" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="E36">
         <v>311.24049275696001</v>
       </c>
       <c r="F36" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+      <c r="G36">
+        <v>443573</v>
+      </c>
+      <c r="I36">
+        <v>15636</v>
+      </c>
+      <c r="J36" t="s">
+        <v>584</v>
+      </c>
+      <c r="K36" t="s">
+        <v>10</v>
+      </c>
+      <c r="L36" t="s">
+        <v>607</v>
+      </c>
+      <c r="M36">
+        <v>30007221</v>
+      </c>
+      <c r="N36" t="s">
+        <v>608</v>
+      </c>
+      <c r="O36">
+        <v>381.60893739934801</v>
+      </c>
+      <c r="P36" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>23553</v>
       </c>
@@ -2702,42 +3986,87 @@
       <c r="F37" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>37648</v>
+      </c>
+      <c r="J37" t="s">
+        <v>15</v>
+      </c>
+      <c r="K37" t="s">
+        <v>14</v>
+      </c>
+      <c r="L37" t="s">
+        <v>311</v>
+      </c>
+      <c r="M37">
+        <v>30053315</v>
+      </c>
+      <c r="N37" t="s">
+        <v>312</v>
+      </c>
+      <c r="O37">
+        <v>378.43384277048898</v>
+      </c>
+      <c r="P37" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>21000</v>
+        <v>23587</v>
       </c>
       <c r="B38" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C38">
-        <v>443972</v>
+        <v>443573</v>
       </c>
       <c r="D38" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="E38">
         <v>311.24049275696001</v>
       </c>
       <c r="F38" t="s">
-        <v>433</v>
-      </c>
-      <c r="G38">
-        <v>443573</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="I38">
+        <v>2139</v>
+      </c>
+      <c r="J38" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" t="s">
+        <v>1</v>
+      </c>
+      <c r="L38" t="s">
+        <v>309</v>
+      </c>
+      <c r="M38">
+        <v>30053315</v>
+      </c>
+      <c r="N38" t="s">
+        <v>310</v>
+      </c>
+      <c r="O38">
+        <v>378.43384277048898</v>
+      </c>
+      <c r="P38" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>34319</v>
+        <v>34318</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C39">
         <v>20146771</v>
       </c>
       <c r="D39" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E39">
         <v>309.14695935877501</v>
@@ -2745,19 +4074,43 @@
       <c r="F39" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>15850</v>
+      </c>
+      <c r="J39" t="s">
+        <v>584</v>
+      </c>
+      <c r="K39" t="s">
+        <v>10</v>
+      </c>
+      <c r="L39" t="s">
+        <v>118</v>
+      </c>
+      <c r="M39">
+        <v>30019302</v>
+      </c>
+      <c r="N39" t="s">
+        <v>119</v>
+      </c>
+      <c r="O39">
+        <v>378.195198611568</v>
+      </c>
+      <c r="P39" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>34318</v>
+        <v>34319</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C40">
         <v>20146771</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E40">
         <v>309.14695935877501</v>
@@ -2765,8 +4118,32 @@
       <c r="F40" t="s">
         <v>435</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>15851</v>
+      </c>
+      <c r="J40" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" t="s">
+        <v>10</v>
+      </c>
+      <c r="L40" t="s">
+        <v>116</v>
+      </c>
+      <c r="M40">
+        <v>30019302</v>
+      </c>
+      <c r="N40" t="s">
+        <v>117</v>
+      </c>
+      <c r="O40">
+        <v>378.195198611568</v>
+      </c>
+      <c r="P40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1682</v>
       </c>
@@ -2788,11 +4165,32 @@
       <c r="G41">
         <v>20050276</v>
       </c>
-      <c r="H41" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>37486</v>
+      </c>
+      <c r="J41" t="s">
+        <v>15</v>
+      </c>
+      <c r="K41" t="s">
+        <v>14</v>
+      </c>
+      <c r="L41" t="s">
+        <v>609</v>
+      </c>
+      <c r="M41">
+        <v>9392292</v>
+      </c>
+      <c r="N41" t="s">
+        <v>610</v>
+      </c>
+      <c r="O41">
+        <v>377.62534820917898</v>
+      </c>
+      <c r="P41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1719</v>
       </c>
@@ -2811,22 +4209,43 @@
       <c r="F42" t="s">
         <v>26</v>
       </c>
-      <c r="H42" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>37487</v>
+      </c>
+      <c r="J42" t="s">
+        <v>2</v>
+      </c>
+      <c r="K42" t="s">
+        <v>1</v>
+      </c>
+      <c r="L42" t="s">
+        <v>611</v>
+      </c>
+      <c r="M42">
+        <v>9392292</v>
+      </c>
+      <c r="N42" t="s">
+        <v>612</v>
+      </c>
+      <c r="O42">
+        <v>377.62534820917898</v>
+      </c>
+      <c r="P42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>15829</v>
+        <v>15828</v>
       </c>
       <c r="B43" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C43">
         <v>30038669</v>
       </c>
       <c r="D43" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E43">
         <v>293.32990909741198</v>
@@ -2834,19 +4253,43 @@
       <c r="F43" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>28035</v>
+      </c>
+      <c r="J43" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" t="s">
+        <v>10</v>
+      </c>
+      <c r="L43" t="s">
+        <v>613</v>
+      </c>
+      <c r="M43">
+        <v>11485087</v>
+      </c>
+      <c r="N43" t="s">
+        <v>614</v>
+      </c>
+      <c r="O43">
+        <v>377.28264192498602</v>
+      </c>
+      <c r="P43" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>15828</v>
+        <v>15829</v>
       </c>
       <c r="B44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C44">
         <v>30038669</v>
       </c>
       <c r="D44" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E44">
         <v>293.32990909741198</v>
@@ -2854,8 +4297,32 @@
       <c r="F44" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>2804</v>
+      </c>
+      <c r="J44" t="s">
+        <v>584</v>
+      </c>
+      <c r="K44" t="s">
+        <v>577</v>
+      </c>
+      <c r="L44" t="s">
+        <v>615</v>
+      </c>
+      <c r="M44">
+        <v>11485087</v>
+      </c>
+      <c r="N44" t="s">
+        <v>616</v>
+      </c>
+      <c r="O44">
+        <v>377.28264192498602</v>
+      </c>
+      <c r="P44" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>31474</v>
       </c>
@@ -2874,8 +4341,32 @@
       <c r="F45" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>29429</v>
+      </c>
+      <c r="J45" t="s">
+        <v>584</v>
+      </c>
+      <c r="K45" t="s">
+        <v>577</v>
+      </c>
+      <c r="L45" t="s">
+        <v>267</v>
+      </c>
+      <c r="M45">
+        <v>649</v>
+      </c>
+      <c r="N45" t="s">
+        <v>268</v>
+      </c>
+      <c r="O45">
+        <v>367.66677138945198</v>
+      </c>
+      <c r="P45" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>31475</v>
       </c>
@@ -2894,8 +4385,32 @@
       <c r="F46" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>1106</v>
+      </c>
+      <c r="J46" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" t="s">
+        <v>10</v>
+      </c>
+      <c r="L46" t="s">
+        <v>265</v>
+      </c>
+      <c r="M46">
+        <v>649</v>
+      </c>
+      <c r="N46" t="s">
+        <v>266</v>
+      </c>
+      <c r="O46">
+        <v>367.66677138945198</v>
+      </c>
+      <c r="P46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>3362</v>
       </c>
@@ -2914,8 +4429,35 @@
       <c r="F47" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H47" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47">
+        <v>2884</v>
+      </c>
+      <c r="J47" t="s">
+        <v>15</v>
+      </c>
+      <c r="K47" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" t="s">
+        <v>617</v>
+      </c>
+      <c r="M47">
+        <v>14668493</v>
+      </c>
+      <c r="N47" t="s">
+        <v>618</v>
+      </c>
+      <c r="O47">
+        <v>365.86142281037502</v>
+      </c>
+      <c r="P47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>20610</v>
       </c>
@@ -2934,19 +4476,43 @@
       <c r="F48" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>208</v>
+      </c>
+      <c r="J48" t="s">
+        <v>2</v>
+      </c>
+      <c r="K48" t="s">
+        <v>1</v>
+      </c>
+      <c r="L48" t="s">
+        <v>412</v>
+      </c>
+      <c r="M48">
+        <v>30002729</v>
+      </c>
+      <c r="N48" t="s">
+        <v>413</v>
+      </c>
+      <c r="O48">
+        <v>362.53953414778999</v>
+      </c>
+      <c r="P48" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>15851</v>
+        <v>15850</v>
       </c>
       <c r="B49" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C49">
         <v>104651</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E49">
         <v>285.15145904513099</v>
@@ -2955,21 +4521,45 @@
         <v>26</v>
       </c>
       <c r="G49">
-        <v>30019302</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30009302</v>
+      </c>
+      <c r="I49">
+        <v>199</v>
+      </c>
+      <c r="J49" t="s">
+        <v>15</v>
+      </c>
+      <c r="K49" t="s">
+        <v>14</v>
+      </c>
+      <c r="L49" t="s">
+        <v>414</v>
+      </c>
+      <c r="M49">
+        <v>30002729</v>
+      </c>
+      <c r="N49" t="s">
+        <v>415</v>
+      </c>
+      <c r="O49">
+        <v>362.53953414778999</v>
+      </c>
+      <c r="P49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>15850</v>
+        <v>15851</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C50">
         <v>104651</v>
       </c>
       <c r="D50" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E50">
         <v>285.15145904513099</v>
@@ -2978,10 +4568,34 @@
         <v>26</v>
       </c>
       <c r="G50">
-        <v>30009302</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+        <v>30019302</v>
+      </c>
+      <c r="I50">
+        <v>34156</v>
+      </c>
+      <c r="J50" t="s">
+        <v>2</v>
+      </c>
+      <c r="K50" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" t="s">
+        <v>416</v>
+      </c>
+      <c r="M50">
+        <v>7794509</v>
+      </c>
+      <c r="N50" t="s">
+        <v>417</v>
+      </c>
+      <c r="O50">
+        <v>362.09859632336702</v>
+      </c>
+      <c r="P50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>21276</v>
       </c>
@@ -3000,8 +4614,32 @@
       <c r="F51" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>28179</v>
+      </c>
+      <c r="J51" t="s">
+        <v>2</v>
+      </c>
+      <c r="K51" t="s">
+        <v>1</v>
+      </c>
+      <c r="L51" t="s">
+        <v>426</v>
+      </c>
+      <c r="M51">
+        <v>20112859</v>
+      </c>
+      <c r="N51" t="s">
+        <v>427</v>
+      </c>
+      <c r="O51">
+        <v>360.23836464192902</v>
+      </c>
+      <c r="P51">
+        <v>30013783</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>21277</v>
       </c>
@@ -3023,19 +4661,43 @@
       <c r="G52">
         <v>30073585</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>28180</v>
+      </c>
+      <c r="J52" t="s">
+        <v>15</v>
+      </c>
+      <c r="K52" t="s">
+        <v>1</v>
+      </c>
+      <c r="L52" t="s">
+        <v>424</v>
+      </c>
+      <c r="M52">
+        <v>20112859</v>
+      </c>
+      <c r="N52" t="s">
+        <v>425</v>
+      </c>
+      <c r="O52">
+        <v>360.23836464192902</v>
+      </c>
+      <c r="P52">
+        <v>30013783</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>32313</v>
+        <v>32312</v>
       </c>
       <c r="B53" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C53">
         <v>20110483</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E53">
         <v>284.16810722219202</v>
@@ -3043,19 +4705,43 @@
       <c r="F53" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>3662</v>
+      </c>
+      <c r="J53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K53" t="s">
+        <v>14</v>
+      </c>
+      <c r="L53" t="s">
+        <v>59</v>
+      </c>
+      <c r="M53">
+        <v>11467214</v>
+      </c>
+      <c r="N53" t="s">
+        <v>60</v>
+      </c>
+      <c r="O53">
+        <v>360.100817434715</v>
+      </c>
+      <c r="P53" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>32312</v>
+        <v>32313</v>
       </c>
       <c r="B54" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C54">
         <v>20110483</v>
       </c>
       <c r="D54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E54">
         <v>284.16810722219202</v>
@@ -3063,19 +4749,43 @@
       <c r="F54" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>3636</v>
+      </c>
+      <c r="J54" t="s">
+        <v>2</v>
+      </c>
+      <c r="K54" t="s">
+        <v>14</v>
+      </c>
+      <c r="L54" t="s">
+        <v>57</v>
+      </c>
+      <c r="M54">
+        <v>11467214</v>
+      </c>
+      <c r="N54" t="s">
+        <v>58</v>
+      </c>
+      <c r="O54">
+        <v>360.100817434715</v>
+      </c>
+      <c r="P54" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>20999</v>
+        <v>524</v>
       </c>
       <c r="B55" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C55">
         <v>30057975</v>
       </c>
       <c r="D55" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E55">
         <v>278.95251560771999</v>
@@ -3086,19 +4796,43 @@
       <c r="H55" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>27186</v>
+      </c>
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+      <c r="K55" t="s">
+        <v>577</v>
+      </c>
+      <c r="L55" t="s">
+        <v>61</v>
+      </c>
+      <c r="M55">
+        <v>20051109</v>
+      </c>
+      <c r="N55" t="s">
+        <v>62</v>
+      </c>
+      <c r="O55">
+        <v>359.80389028008398</v>
+      </c>
+      <c r="P55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>524</v>
+        <v>20999</v>
       </c>
       <c r="B56" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C56">
         <v>30057975</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E56">
         <v>278.95251560771999</v>
@@ -3106,11 +4840,32 @@
       <c r="F56" t="s">
         <v>367</v>
       </c>
-      <c r="H56" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>27185</v>
+      </c>
+      <c r="J56" t="s">
+        <v>2</v>
+      </c>
+      <c r="K56" t="s">
+        <v>577</v>
+      </c>
+      <c r="L56" t="s">
+        <v>63</v>
+      </c>
+      <c r="M56">
+        <v>20051109</v>
+      </c>
+      <c r="N56" t="s">
+        <v>64</v>
+      </c>
+      <c r="O56">
+        <v>359.80389028008398</v>
+      </c>
+      <c r="P56" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>27888</v>
       </c>
@@ -3129,8 +4884,32 @@
       <c r="F57" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>2745</v>
+      </c>
+      <c r="J57" t="s">
+        <v>15</v>
+      </c>
+      <c r="K57" t="s">
+        <v>14</v>
+      </c>
+      <c r="L57" t="s">
+        <v>166</v>
+      </c>
+      <c r="M57">
+        <v>20050431</v>
+      </c>
+      <c r="N57" t="s">
+        <v>167</v>
+      </c>
+      <c r="O57">
+        <v>359.47400315180499</v>
+      </c>
+      <c r="P57" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>27889</v>
       </c>
@@ -3152,8 +4931,32 @@
       <c r="G58">
         <v>20362192</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>2739</v>
+      </c>
+      <c r="J58" t="s">
+        <v>2</v>
+      </c>
+      <c r="K58" t="s">
+        <v>1</v>
+      </c>
+      <c r="L58" t="s">
+        <v>168</v>
+      </c>
+      <c r="M58">
+        <v>20050431</v>
+      </c>
+      <c r="N58" t="s">
+        <v>169</v>
+      </c>
+      <c r="O58">
+        <v>359.47400315180499</v>
+      </c>
+      <c r="P58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1658</v>
       </c>
@@ -3172,8 +4975,32 @@
       <c r="F59" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>2147</v>
+      </c>
+      <c r="J59" t="s">
+        <v>2</v>
+      </c>
+      <c r="K59" t="s">
+        <v>1</v>
+      </c>
+      <c r="L59" t="s">
+        <v>170</v>
+      </c>
+      <c r="M59">
+        <v>20050407</v>
+      </c>
+      <c r="N59" t="s">
+        <v>171</v>
+      </c>
+      <c r="O59">
+        <v>357.186228615772</v>
+      </c>
+      <c r="P59" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>14774</v>
       </c>
@@ -3192,8 +5019,32 @@
       <c r="F60" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>2143</v>
+      </c>
+      <c r="J60" t="s">
+        <v>15</v>
+      </c>
+      <c r="K60" t="s">
+        <v>14</v>
+      </c>
+      <c r="L60" t="s">
+        <v>172</v>
+      </c>
+      <c r="M60">
+        <v>20050407</v>
+      </c>
+      <c r="N60" t="s">
+        <v>173</v>
+      </c>
+      <c r="O60">
+        <v>357.186228615772</v>
+      </c>
+      <c r="P60" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>24572</v>
       </c>
@@ -3212,8 +5063,35 @@
       <c r="F61" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>27775</v>
+      </c>
+      <c r="J61" t="s">
+        <v>11</v>
+      </c>
+      <c r="K61" t="s">
+        <v>577</v>
+      </c>
+      <c r="L61" t="s">
+        <v>206</v>
+      </c>
+      <c r="M61">
+        <v>30070016</v>
+      </c>
+      <c r="N61" t="s">
+        <v>207</v>
+      </c>
+      <c r="O61">
+        <v>356.33723123693198</v>
+      </c>
+      <c r="P61" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>26165</v>
       </c>
@@ -3232,8 +5110,32 @@
       <c r="F62" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>23241</v>
+      </c>
+      <c r="J62" t="s">
+        <v>584</v>
+      </c>
+      <c r="K62" t="s">
+        <v>577</v>
+      </c>
+      <c r="L62" t="s">
+        <v>619</v>
+      </c>
+      <c r="M62">
+        <v>10223459</v>
+      </c>
+      <c r="N62" t="s">
+        <v>620</v>
+      </c>
+      <c r="O62">
+        <v>353.62827128485799</v>
+      </c>
+      <c r="P62" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1618</v>
       </c>
@@ -3252,11 +5154,32 @@
       <c r="F63" t="s">
         <v>26</v>
       </c>
-      <c r="H63" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>14932</v>
+      </c>
+      <c r="J63" t="s">
+        <v>11</v>
+      </c>
+      <c r="K63" t="s">
+        <v>10</v>
+      </c>
+      <c r="L63" t="s">
+        <v>621</v>
+      </c>
+      <c r="M63">
+        <v>10223459</v>
+      </c>
+      <c r="N63" t="s">
+        <v>622</v>
+      </c>
+      <c r="O63">
+        <v>353.62827128485799</v>
+      </c>
+      <c r="P63" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1619</v>
       </c>
@@ -3278,11 +5201,32 @@
       <c r="G64">
         <v>30023165</v>
       </c>
-      <c r="H64" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>24923</v>
+      </c>
+      <c r="J64" t="s">
+        <v>15</v>
+      </c>
+      <c r="K64" t="s">
+        <v>1</v>
+      </c>
+      <c r="L64" t="s">
+        <v>146</v>
+      </c>
+      <c r="M64">
+        <v>20113061</v>
+      </c>
+      <c r="N64" t="s">
+        <v>147</v>
+      </c>
+      <c r="O64">
+        <v>347.64104680954102</v>
+      </c>
+      <c r="P64" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>16509</v>
       </c>
@@ -3301,8 +5245,32 @@
       <c r="F65" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>16511</v>
+      </c>
+      <c r="J65" t="s">
+        <v>2</v>
+      </c>
+      <c r="K65" t="s">
+        <v>1</v>
+      </c>
+      <c r="L65" t="s">
+        <v>623</v>
+      </c>
+      <c r="M65">
+        <v>30000657</v>
+      </c>
+      <c r="N65" t="s">
+        <v>624</v>
+      </c>
+      <c r="O65">
+        <v>347.519571825875</v>
+      </c>
+      <c r="P65" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>16510</v>
       </c>
@@ -3321,8 +5289,32 @@
       <c r="F66" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>25991</v>
+      </c>
+      <c r="J66" t="s">
+        <v>2</v>
+      </c>
+      <c r="K66" t="s">
+        <v>1</v>
+      </c>
+      <c r="L66" t="s">
+        <v>158</v>
+      </c>
+      <c r="M66">
+        <v>9950387</v>
+      </c>
+      <c r="N66" t="s">
+        <v>159</v>
+      </c>
+      <c r="O66">
+        <v>345.72999853282801</v>
+      </c>
+      <c r="P66" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>25991</v>
       </c>
@@ -3341,19 +5333,43 @@
       <c r="F67" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>16118</v>
+      </c>
+      <c r="J67" t="s">
+        <v>2</v>
+      </c>
+      <c r="K67" t="s">
+        <v>1</v>
+      </c>
+      <c r="L67" t="s">
+        <v>625</v>
+      </c>
+      <c r="M67">
+        <v>20004286</v>
+      </c>
+      <c r="N67" t="s">
+        <v>626</v>
+      </c>
+      <c r="O67">
+        <v>345.13515371763799</v>
+      </c>
+      <c r="P67" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>32082</v>
+        <v>32081</v>
       </c>
       <c r="B68" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C68">
         <v>30055309</v>
       </c>
       <c r="D68" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="E68">
         <v>263.64502801676099</v>
@@ -3361,22 +5377,43 @@
       <c r="F68" t="s">
         <v>431</v>
       </c>
-      <c r="H68" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>16119</v>
+      </c>
+      <c r="J68" t="s">
+        <v>15</v>
+      </c>
+      <c r="K68" t="s">
+        <v>1</v>
+      </c>
+      <c r="L68" t="s">
+        <v>627</v>
+      </c>
+      <c r="M68">
+        <v>20004286</v>
+      </c>
+      <c r="N68" t="s">
+        <v>628</v>
+      </c>
+      <c r="O68">
+        <v>345.13515371763799</v>
+      </c>
+      <c r="P68" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>32081</v>
+        <v>32082</v>
       </c>
       <c r="B69" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C69">
         <v>30055309</v>
       </c>
       <c r="D69" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E69">
         <v>263.64502801676099</v>
@@ -3384,11 +5421,32 @@
       <c r="F69" t="s">
         <v>431</v>
       </c>
-      <c r="H69" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>29639</v>
+      </c>
+      <c r="J69" t="s">
+        <v>15</v>
+      </c>
+      <c r="K69" t="s">
+        <v>1</v>
+      </c>
+      <c r="L69" t="s">
+        <v>629</v>
+      </c>
+      <c r="M69">
+        <v>442495</v>
+      </c>
+      <c r="N69" t="s">
+        <v>630</v>
+      </c>
+      <c r="O69">
+        <v>339.27925820610602</v>
+      </c>
+      <c r="P69">
+        <v>30011526</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1677</v>
       </c>
@@ -3407,8 +5465,32 @@
       <c r="F70" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>23318</v>
+      </c>
+      <c r="J70" t="s">
+        <v>2</v>
+      </c>
+      <c r="K70" t="s">
+        <v>1</v>
+      </c>
+      <c r="L70" t="s">
+        <v>631</v>
+      </c>
+      <c r="M70">
+        <v>442495</v>
+      </c>
+      <c r="N70" t="s">
+        <v>632</v>
+      </c>
+      <c r="O70">
+        <v>339.27925820610602</v>
+      </c>
+      <c r="P70">
+        <v>30011526</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>2307</v>
       </c>
@@ -3427,8 +5509,32 @@
       <c r="F71" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>21000</v>
+      </c>
+      <c r="J71" t="s">
+        <v>15</v>
+      </c>
+      <c r="K71" t="s">
+        <v>14</v>
+      </c>
+      <c r="L71" t="s">
+        <v>91</v>
+      </c>
+      <c r="M71">
+        <v>443573</v>
+      </c>
+      <c r="N71" t="s">
+        <v>27</v>
+      </c>
+      <c r="O71">
+        <v>335.65843970091299</v>
+      </c>
+      <c r="P71" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>24126</v>
       </c>
@@ -3450,8 +5556,29 @@
       <c r="G72">
         <v>30029306</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>37982</v>
+      </c>
+      <c r="J72" t="s">
+        <v>15</v>
+      </c>
+      <c r="L72" t="s">
+        <v>216</v>
+      </c>
+      <c r="M72">
+        <v>443270</v>
+      </c>
+      <c r="N72" t="s">
+        <v>217</v>
+      </c>
+      <c r="O72">
+        <v>334.81502841503601</v>
+      </c>
+      <c r="P72" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>12938</v>
       </c>
@@ -3473,8 +5600,32 @@
       <c r="G73">
         <v>13971323</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>20435</v>
+      </c>
+      <c r="J73" t="s">
+        <v>584</v>
+      </c>
+      <c r="K73" t="s">
+        <v>577</v>
+      </c>
+      <c r="L73" t="s">
+        <v>72</v>
+      </c>
+      <c r="M73">
+        <v>436101</v>
+      </c>
+      <c r="N73" t="s">
+        <v>73</v>
+      </c>
+      <c r="O73">
+        <v>334.81189855315199</v>
+      </c>
+      <c r="P73" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2695</v>
       </c>
@@ -3493,8 +5644,32 @@
       <c r="F74" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>1649</v>
+      </c>
+      <c r="J74" t="s">
+        <v>11</v>
+      </c>
+      <c r="K74" t="s">
+        <v>10</v>
+      </c>
+      <c r="L74" t="s">
+        <v>74</v>
+      </c>
+      <c r="M74">
+        <v>436101</v>
+      </c>
+      <c r="N74" t="s">
+        <v>75</v>
+      </c>
+      <c r="O74">
+        <v>334.81189855315199</v>
+      </c>
+      <c r="P74" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>23543</v>
       </c>
@@ -3513,19 +5688,43 @@
       <c r="F75" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>23920</v>
+      </c>
+      <c r="J75" t="s">
+        <v>15</v>
+      </c>
+      <c r="K75" t="s">
+        <v>14</v>
+      </c>
+      <c r="L75" t="s">
+        <v>86</v>
+      </c>
+      <c r="M75">
+        <v>439282</v>
+      </c>
+      <c r="N75" t="s">
+        <v>87</v>
+      </c>
+      <c r="O75">
+        <v>327.22398912434102</v>
+      </c>
+      <c r="P75" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>2745</v>
+        <v>2739</v>
       </c>
       <c r="B76" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C76">
         <v>20051319</v>
       </c>
       <c r="D76" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E76">
         <v>251.95827786610599</v>
@@ -3536,19 +5735,43 @@
       <c r="G76">
         <v>20050431</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>676</v>
+      </c>
+      <c r="J76" t="s">
+        <v>2</v>
+      </c>
+      <c r="K76" t="s">
+        <v>1</v>
+      </c>
+      <c r="L76" t="s">
+        <v>84</v>
+      </c>
+      <c r="M76">
+        <v>439282</v>
+      </c>
+      <c r="N76" t="s">
+        <v>85</v>
+      </c>
+      <c r="O76">
+        <v>327.22398912434102</v>
+      </c>
+      <c r="P76" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>2739</v>
+        <v>2745</v>
       </c>
       <c r="B77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C77">
         <v>20051319</v>
       </c>
       <c r="D77" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E77">
         <v>251.95827786610599</v>
@@ -3559,31 +5782,76 @@
       <c r="G77">
         <v>20050431</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>34510</v>
+      </c>
+      <c r="J77" t="s">
+        <v>2</v>
+      </c>
+      <c r="K77" t="s">
+        <v>1</v>
+      </c>
+      <c r="L77" t="s">
+        <v>88</v>
+      </c>
+      <c r="M77">
+        <v>20364356</v>
+      </c>
+      <c r="N77" t="s">
+        <v>25</v>
+      </c>
+      <c r="O77">
+        <v>323.39922354960902</v>
+      </c>
+      <c r="P77">
+        <v>20364355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>2147</v>
+        <v>2142</v>
       </c>
       <c r="B78" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C78">
-        <v>20050477</v>
+        <v>20050407</v>
       </c>
       <c r="D78" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="E78">
         <v>250.318194480301</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78">
-        <v>20051141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+        <v>21</v>
+      </c>
+      <c r="I78">
+        <v>20981</v>
+      </c>
+      <c r="J78" t="s">
+        <v>11</v>
+      </c>
+      <c r="K78" t="s">
+        <v>577</v>
+      </c>
+      <c r="L78" t="s">
+        <v>248</v>
+      </c>
+      <c r="M78">
+        <v>3369767</v>
+      </c>
+      <c r="N78" t="s">
+        <v>249</v>
+      </c>
+      <c r="O78">
+        <v>319.17775318752501</v>
+      </c>
+      <c r="P78" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>2143</v>
       </c>
@@ -3605,19 +5873,43 @@
       <c r="G79">
         <v>20050407</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>2541</v>
+      </c>
+      <c r="J79" t="s">
+        <v>584</v>
+      </c>
+      <c r="K79" t="s">
+        <v>577</v>
+      </c>
+      <c r="L79" t="s">
+        <v>244</v>
+      </c>
+      <c r="M79">
+        <v>3369767</v>
+      </c>
+      <c r="N79" t="s">
+        <v>245</v>
+      </c>
+      <c r="O79">
+        <v>319.17775318752501</v>
+      </c>
+      <c r="P79" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>2142</v>
+        <v>2144</v>
       </c>
       <c r="B80" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C80">
         <v>20050407</v>
       </c>
       <c r="D80" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E80">
         <v>250.318194480301</v>
@@ -3625,28 +5917,79 @@
       <c r="F80" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>28507</v>
+      </c>
+      <c r="J80" t="s">
+        <v>584</v>
+      </c>
+      <c r="K80" t="s">
+        <v>577</v>
+      </c>
+      <c r="L80" t="s">
+        <v>633</v>
+      </c>
+      <c r="M80">
+        <v>906898</v>
+      </c>
+      <c r="N80" t="s">
+        <v>634</v>
+      </c>
+      <c r="O80">
+        <v>315.66848809862398</v>
+      </c>
+      <c r="P80" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>2144</v>
+        <v>2147</v>
       </c>
       <c r="B81" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C81">
-        <v>20050407</v>
+        <v>20050477</v>
       </c>
       <c r="D81" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="E81">
         <v>250.318194480301</v>
       </c>
       <c r="F81" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+      <c r="G81">
+        <v>20051141</v>
+      </c>
+      <c r="I81">
+        <v>493</v>
+      </c>
+      <c r="J81" t="s">
+        <v>11</v>
+      </c>
+      <c r="K81" t="s">
+        <v>10</v>
+      </c>
+      <c r="L81" t="s">
+        <v>635</v>
+      </c>
+      <c r="M81">
+        <v>906898</v>
+      </c>
+      <c r="N81" t="s">
+        <v>636</v>
+      </c>
+      <c r="O81">
+        <v>315.66848809862398</v>
+      </c>
+      <c r="P81" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>22871</v>
       </c>
@@ -3665,8 +6008,32 @@
       <c r="F82" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>30237</v>
+      </c>
+      <c r="J82" t="s">
+        <v>15</v>
+      </c>
+      <c r="K82" t="s">
+        <v>14</v>
+      </c>
+      <c r="L82" t="s">
+        <v>637</v>
+      </c>
+      <c r="M82">
+        <v>913696</v>
+      </c>
+      <c r="N82" t="s">
+        <v>638</v>
+      </c>
+      <c r="O82">
+        <v>311.74507909428303</v>
+      </c>
+      <c r="P82">
+        <v>20111019</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>29676</v>
       </c>
@@ -3685,19 +6052,43 @@
       <c r="F83" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>28721</v>
+      </c>
+      <c r="J83" t="s">
+        <v>11</v>
+      </c>
+      <c r="K83" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" t="s">
+        <v>639</v>
+      </c>
+      <c r="M83">
+        <v>30036214</v>
+      </c>
+      <c r="N83" t="s">
+        <v>640</v>
+      </c>
+      <c r="O83">
+        <v>311.06940584032202</v>
+      </c>
+      <c r="P83" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>1569</v>
+        <v>1568</v>
       </c>
       <c r="B84" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C84">
         <v>20043743</v>
       </c>
       <c r="D84" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E84">
         <v>240.78917849823</v>
@@ -3708,19 +6099,43 @@
       <c r="G84">
         <v>436631</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>28720</v>
+      </c>
+      <c r="J84" t="s">
+        <v>584</v>
+      </c>
+      <c r="K84" t="s">
+        <v>577</v>
+      </c>
+      <c r="L84" t="s">
+        <v>641</v>
+      </c>
+      <c r="M84">
+        <v>30036214</v>
+      </c>
+      <c r="N84" t="s">
+        <v>642</v>
+      </c>
+      <c r="O84">
+        <v>311.06940584032202</v>
+      </c>
+      <c r="P84" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1568</v>
+        <v>1569</v>
       </c>
       <c r="B85" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C85">
         <v>20043743</v>
       </c>
       <c r="D85" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E85">
         <v>240.78917849823</v>
@@ -3731,8 +6146,32 @@
       <c r="G85">
         <v>436631</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>20519</v>
+      </c>
+      <c r="J85" t="s">
+        <v>584</v>
+      </c>
+      <c r="K85" t="s">
+        <v>10</v>
+      </c>
+      <c r="L85" t="s">
+        <v>643</v>
+      </c>
+      <c r="M85">
+        <v>30005876</v>
+      </c>
+      <c r="N85" t="s">
+        <v>644</v>
+      </c>
+      <c r="O85">
+        <v>304.15895598129799</v>
+      </c>
+      <c r="P85">
+        <v>30005881</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>158</v>
       </c>
@@ -3754,8 +6193,32 @@
       <c r="G86">
         <v>20050592</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>22862</v>
+      </c>
+      <c r="J86" t="s">
+        <v>11</v>
+      </c>
+      <c r="K86" t="s">
+        <v>10</v>
+      </c>
+      <c r="L86" t="s">
+        <v>218</v>
+      </c>
+      <c r="M86">
+        <v>913972</v>
+      </c>
+      <c r="N86" t="s">
+        <v>219</v>
+      </c>
+      <c r="O86">
+        <v>302.11797543286599</v>
+      </c>
+      <c r="P86" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>12913</v>
       </c>
@@ -3777,8 +6240,32 @@
       <c r="G87">
         <v>13971323</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>3386</v>
+      </c>
+      <c r="J87" t="s">
+        <v>11</v>
+      </c>
+      <c r="K87" t="s">
+        <v>10</v>
+      </c>
+      <c r="L87" t="s">
+        <v>645</v>
+      </c>
+      <c r="M87">
+        <v>444426</v>
+      </c>
+      <c r="N87" t="s">
+        <v>646</v>
+      </c>
+      <c r="O87">
+        <v>295.52297978369501</v>
+      </c>
+      <c r="P87" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>2624</v>
       </c>
@@ -3797,19 +6284,43 @@
       <c r="F88" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>23222</v>
+      </c>
+      <c r="J88" t="s">
+        <v>584</v>
+      </c>
+      <c r="K88" t="s">
+        <v>577</v>
+      </c>
+      <c r="L88" t="s">
+        <v>647</v>
+      </c>
+      <c r="M88">
+        <v>444426</v>
+      </c>
+      <c r="N88" t="s">
+        <v>648</v>
+      </c>
+      <c r="O88">
+        <v>295.52297978369501</v>
+      </c>
+      <c r="P88" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>26474</v>
+        <v>26473</v>
       </c>
       <c r="B89" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C89">
         <v>5853608</v>
       </c>
       <c r="D89" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E89">
         <v>237.300511585442</v>
@@ -3817,19 +6328,43 @@
       <c r="F89" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>1682</v>
+      </c>
+      <c r="J89" t="s">
+        <v>15</v>
+      </c>
+      <c r="K89" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" t="s">
+        <v>104</v>
+      </c>
+      <c r="M89">
+        <v>20051519</v>
+      </c>
+      <c r="N89" t="s">
+        <v>105</v>
+      </c>
+      <c r="O89">
+        <v>294.43521142734102</v>
+      </c>
+      <c r="P89" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>26473</v>
+        <v>26474</v>
       </c>
       <c r="B90" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C90">
         <v>5853608</v>
       </c>
       <c r="D90" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E90">
         <v>237.300511585442</v>
@@ -3837,8 +6372,32 @@
       <c r="F90" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>1719</v>
+      </c>
+      <c r="J90" t="s">
+        <v>2</v>
+      </c>
+      <c r="K90" t="s">
+        <v>1</v>
+      </c>
+      <c r="L90" t="s">
+        <v>106</v>
+      </c>
+      <c r="M90">
+        <v>20051519</v>
+      </c>
+      <c r="N90" t="s">
+        <v>107</v>
+      </c>
+      <c r="O90">
+        <v>294.43521142734102</v>
+      </c>
+      <c r="P90" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>2622</v>
       </c>
@@ -3857,8 +6416,35 @@
       <c r="F91" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H91" t="s">
+        <v>24</v>
+      </c>
+      <c r="I91">
+        <v>2105</v>
+      </c>
+      <c r="J91" t="s">
+        <v>2</v>
+      </c>
+      <c r="K91" t="s">
+        <v>1</v>
+      </c>
+      <c r="L91" t="s">
+        <v>224</v>
+      </c>
+      <c r="M91">
+        <v>30000677</v>
+      </c>
+      <c r="N91" t="s">
+        <v>225</v>
+      </c>
+      <c r="O91">
+        <v>294.19182593373603</v>
+      </c>
+      <c r="P91" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>32542</v>
       </c>
@@ -3880,8 +6466,32 @@
       <c r="G92">
         <v>907222</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>15828</v>
+      </c>
+      <c r="J92" t="s">
+        <v>2</v>
+      </c>
+      <c r="K92" t="s">
+        <v>14</v>
+      </c>
+      <c r="L92" t="s">
+        <v>110</v>
+      </c>
+      <c r="M92">
+        <v>30038669</v>
+      </c>
+      <c r="N92" t="s">
+        <v>111</v>
+      </c>
+      <c r="O92">
+        <v>293.32990909741198</v>
+      </c>
+      <c r="P92" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>32543</v>
       </c>
@@ -3903,19 +6513,43 @@
       <c r="G93">
         <v>907222</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>15829</v>
+      </c>
+      <c r="J93" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" t="s">
+        <v>14</v>
+      </c>
+      <c r="L93" t="s">
+        <v>108</v>
+      </c>
+      <c r="M93">
+        <v>30038669</v>
+      </c>
+      <c r="N93" t="s">
+        <v>109</v>
+      </c>
+      <c r="O93">
+        <v>293.32990909741198</v>
+      </c>
+      <c r="P93" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B94" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C94">
         <v>906490</v>
       </c>
       <c r="D94" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E94">
         <v>231.242399864324</v>
@@ -3923,19 +6557,46 @@
       <c r="F94" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H94" t="s">
+        <v>24</v>
+      </c>
+      <c r="I94">
+        <v>1568</v>
+      </c>
+      <c r="J94" t="s">
+        <v>11</v>
+      </c>
+      <c r="K94" t="s">
+        <v>10</v>
+      </c>
+      <c r="L94" t="s">
+        <v>184</v>
+      </c>
+      <c r="M94">
+        <v>436631</v>
+      </c>
+      <c r="N94" t="s">
+        <v>185</v>
+      </c>
+      <c r="O94">
+        <v>288.34043561106398</v>
+      </c>
+      <c r="P94" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="B95" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C95">
         <v>906490</v>
       </c>
       <c r="D95" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E95">
         <v>231.242399864324</v>
@@ -3943,8 +6604,35 @@
       <c r="F95" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H95" t="s">
+        <v>24</v>
+      </c>
+      <c r="I95">
+        <v>1569</v>
+      </c>
+      <c r="J95" t="s">
+        <v>584</v>
+      </c>
+      <c r="K95" t="s">
+        <v>577</v>
+      </c>
+      <c r="L95" t="s">
+        <v>182</v>
+      </c>
+      <c r="M95">
+        <v>436631</v>
+      </c>
+      <c r="N95" t="s">
+        <v>183</v>
+      </c>
+      <c r="O95">
+        <v>288.34043561106398</v>
+      </c>
+      <c r="P95" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>27775</v>
       </c>
@@ -3966,19 +6654,43 @@
       <c r="G96">
         <v>30070016</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>30234</v>
+      </c>
+      <c r="J96" t="s">
+        <v>15</v>
+      </c>
+      <c r="K96" t="s">
+        <v>1</v>
+      </c>
+      <c r="L96" t="s">
+        <v>649</v>
+      </c>
+      <c r="M96">
+        <v>30075799</v>
+      </c>
+      <c r="N96" t="s">
+        <v>650</v>
+      </c>
+      <c r="O96">
+        <v>286.07513751445799</v>
+      </c>
+      <c r="P96" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>27356</v>
+        <v>27352</v>
       </c>
       <c r="B97" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C97">
         <v>30090088</v>
       </c>
       <c r="D97" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E97">
         <v>230.85526051845</v>
@@ -3986,19 +6698,46 @@
       <c r="F97" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G97">
+        <v>30090089</v>
+      </c>
+      <c r="I97">
+        <v>30229</v>
+      </c>
+      <c r="J97" t="s">
+        <v>2</v>
+      </c>
+      <c r="K97" t="s">
+        <v>1</v>
+      </c>
+      <c r="L97" t="s">
+        <v>651</v>
+      </c>
+      <c r="M97">
+        <v>30075799</v>
+      </c>
+      <c r="N97" t="s">
+        <v>652</v>
+      </c>
+      <c r="O97">
+        <v>286.07513751445799</v>
+      </c>
+      <c r="P97" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>27352</v>
+        <v>27356</v>
       </c>
       <c r="B98" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C98">
         <v>30090088</v>
       </c>
       <c r="D98" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E98">
         <v>230.85526051845</v>
@@ -4006,22 +6745,43 @@
       <c r="F98" t="s">
         <v>26</v>
       </c>
-      <c r="G98">
-        <v>30090089</v>
-      </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>21276</v>
+      </c>
+      <c r="J98" t="s">
+        <v>584</v>
+      </c>
+      <c r="K98" t="s">
+        <v>577</v>
+      </c>
+      <c r="L98" t="s">
+        <v>120</v>
+      </c>
+      <c r="M98">
+        <v>30073584</v>
+      </c>
+      <c r="N98" t="s">
+        <v>121</v>
+      </c>
+      <c r="O98">
+        <v>284.74741586390002</v>
+      </c>
+      <c r="P98" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>26614</v>
+        <v>26613</v>
       </c>
       <c r="B99" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C99">
         <v>30007958</v>
       </c>
       <c r="D99" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E99">
         <v>230.74923735018101</v>
@@ -4029,19 +6789,43 @@
       <c r="F99" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>21277</v>
+      </c>
+      <c r="J99" t="s">
+        <v>11</v>
+      </c>
+      <c r="K99" t="s">
+        <v>10</v>
+      </c>
+      <c r="L99" t="s">
+        <v>122</v>
+      </c>
+      <c r="M99">
+        <v>30073584</v>
+      </c>
+      <c r="N99" t="s">
+        <v>123</v>
+      </c>
+      <c r="O99">
+        <v>284.74741586390002</v>
+      </c>
+      <c r="P99" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>26613</v>
+        <v>26614</v>
       </c>
       <c r="B100" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C100">
         <v>30007958</v>
       </c>
       <c r="D100" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E100">
         <v>230.74923735018101</v>
@@ -4049,8 +6833,32 @@
       <c r="F100" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <v>32313</v>
+      </c>
+      <c r="J100" t="s">
+        <v>2</v>
+      </c>
+      <c r="K100" t="s">
+        <v>1</v>
+      </c>
+      <c r="L100" t="s">
+        <v>124</v>
+      </c>
+      <c r="M100">
+        <v>20110483</v>
+      </c>
+      <c r="N100" t="s">
+        <v>125</v>
+      </c>
+      <c r="O100">
+        <v>284.16810722219202</v>
+      </c>
+      <c r="P100" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>30547</v>
       </c>
@@ -4066,8 +6874,32 @@
       <c r="E101">
         <v>229.45643016855601</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I101">
+        <v>32312</v>
+      </c>
+      <c r="J101" t="s">
+        <v>15</v>
+      </c>
+      <c r="K101" t="s">
+        <v>1</v>
+      </c>
+      <c r="L101" t="s">
+        <v>126</v>
+      </c>
+      <c r="M101">
+        <v>20110483</v>
+      </c>
+      <c r="N101" t="s">
+        <v>127</v>
+      </c>
+      <c r="O101">
+        <v>284.16810722219202</v>
+      </c>
+      <c r="P101" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1606</v>
       </c>
@@ -4084,41 +6916,41 @@
         <v>228.73485384831801</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>28619</v>
+        <v>28617</v>
       </c>
       <c r="B103" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C103">
         <v>7240751</v>
       </c>
       <c r="D103" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E103">
         <v>225.14713727153</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>28617</v>
+        <v>28619</v>
       </c>
       <c r="B104" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C104">
         <v>7240751</v>
       </c>
       <c r="D104" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E104">
         <v>225.14713727153</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>37982</v>
       </c>
@@ -4135,41 +6967,41 @@
         <v>224.21673560520901</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>22863</v>
+        <v>22862</v>
       </c>
       <c r="B106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C106">
-        <v>913972</v>
+        <v>913980</v>
       </c>
       <c r="D106" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E106">
         <v>222.661803999494</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>22862</v>
+        <v>22863</v>
       </c>
       <c r="B107" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C107">
-        <v>913980</v>
+        <v>913972</v>
       </c>
       <c r="D107" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E107">
         <v>222.661803999494</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>26626</v>
       </c>
@@ -4186,7 +7018,7 @@
         <v>222.503184310313</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2105</v>
       </c>
@@ -4208,8 +7040,11 @@
       <c r="G109">
         <v>30000677</v>
       </c>
-    </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H109" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>3597</v>
       </c>
@@ -4226,7 +7061,7 @@
         <v>220.005203522214</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>22872</v>
       </c>
@@ -4243,7 +7078,7 @@
         <v>220.005203522214</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>23111</v>
       </c>
@@ -4260,7 +7095,7 @@
         <v>219.59878972168499</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>25749</v>
       </c>
@@ -4277,18 +7112,18 @@
         <v>219.59878972168499</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114">
-        <v>3201</v>
+        <v>536</v>
       </c>
       <c r="B114" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C114">
         <v>906673</v>
       </c>
       <c r="D114" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E114">
         <v>219.39952153041199</v>
@@ -4297,18 +7132,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115">
-        <v>536</v>
+        <v>3201</v>
       </c>
       <c r="B115" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C115">
         <v>906673</v>
       </c>
       <c r="D115" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="E115">
         <v>219.39952153041199</v>
@@ -4317,7 +7152,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>30586</v>
       </c>
@@ -4334,7 +7169,7 @@
         <v>219.176009918772</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>23588</v>
       </c>
@@ -4354,7 +7189,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>3512</v>
       </c>
@@ -4371,24 +7206,24 @@
         <v>218.313221365163</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>20981</v>
+        <v>2534</v>
       </c>
       <c r="B119" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C119">
-        <v>105258</v>
+        <v>3369767</v>
       </c>
       <c r="D119" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E119">
         <v>217.698001983669</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2541</v>
       </c>
@@ -4404,25 +7239,28 @@
       <c r="E120">
         <v>217.698001983669</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H120" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>2534</v>
+        <v>20981</v>
       </c>
       <c r="B121" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C121">
-        <v>3369767</v>
+        <v>105258</v>
       </c>
       <c r="D121" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E121">
         <v>217.698001983669</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>20982</v>
       </c>
@@ -4439,7 +7277,7 @@
         <v>217.698001983669</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>26167</v>
       </c>
@@ -4456,7 +7294,7 @@
         <v>216.862873400708</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1408</v>
       </c>
@@ -4479,7 +7317,7 @@
         <v>106971</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>1410</v>
       </c>
@@ -4502,24 +7340,24 @@
         <v>106971</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>3393</v>
+        <v>3381</v>
       </c>
       <c r="B126" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C126">
         <v>444854</v>
       </c>
       <c r="D126" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E126">
         <v>215.66406315115199</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>3392</v>
       </c>
@@ -4536,18 +7374,18 @@
         <v>215.66406315115199</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>3381</v>
+        <v>3393</v>
       </c>
       <c r="B128" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C128">
         <v>444854</v>
       </c>
       <c r="D128" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E128">
         <v>215.66406315115199</v>
@@ -4555,16 +7393,16 @@
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
-        <v>23374</v>
+        <v>3242</v>
       </c>
       <c r="B129" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C129">
         <v>14668493</v>
       </c>
       <c r="D129" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E129">
         <v>215.358472142924</v>
@@ -4575,16 +7413,16 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
-        <v>3242</v>
+        <v>23374</v>
       </c>
       <c r="B130" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C130">
         <v>14668493</v>
       </c>
       <c r="D130" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E130">
         <v>215.358472142924</v>
@@ -4612,16 +7450,16 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
-        <v>29430</v>
+        <v>29429</v>
       </c>
       <c r="B132" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C132">
-        <v>649</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>434</v>
+        <v>6853474</v>
+      </c>
+      <c r="D132" t="s">
+        <v>268</v>
       </c>
       <c r="E132">
         <v>213.145067031118</v>
@@ -4629,16 +7467,16 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>29429</v>
+        <v>29430</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C133">
-        <v>6853474</v>
-      </c>
-      <c r="D133" t="s">
-        <v>268</v>
+        <v>649</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>434</v>
       </c>
       <c r="E133">
         <v>213.145067031118</v>
@@ -4646,16 +7484,16 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>2461</v>
+        <v>2386</v>
       </c>
       <c r="B134" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C134">
         <v>909599</v>
       </c>
       <c r="D134" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E134">
         <v>212.219042826807</v>
@@ -4663,16 +7501,16 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
-        <v>2386</v>
+        <v>2461</v>
       </c>
       <c r="B135" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C135">
         <v>909599</v>
       </c>
       <c r="D135" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E135">
         <v>212.219042826807</v>
@@ -4785,16 +7623,16 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>25204</v>
+        <v>25203</v>
       </c>
       <c r="B142" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C142">
         <v>20141001</v>
       </c>
       <c r="D142" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E142">
         <v>206.50666642728899</v>
@@ -4802,16 +7640,16 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>25203</v>
+        <v>25204</v>
       </c>
       <c r="B143" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C143">
         <v>20141001</v>
       </c>
       <c r="D143" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E143">
         <v>206.50666642728899</v>
@@ -4819,39 +7657,39 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
-        <v>28506</v>
+        <v>455</v>
       </c>
       <c r="B144" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C144">
         <v>906831</v>
       </c>
       <c r="D144" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E144">
         <v>206.01413025779399</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>455</v>
+        <v>28506</v>
       </c>
       <c r="B145" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C145">
         <v>906831</v>
       </c>
       <c r="D145" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E145">
         <v>206.01413025779399</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>29970</v>
       </c>
@@ -4868,7 +7706,7 @@
         <v>205.10786986894001</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>26961</v>
       </c>
@@ -4885,18 +7723,18 @@
         <v>204.36100310947401</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>15278</v>
+        <v>986</v>
       </c>
       <c r="B148" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C148">
         <v>30023105</v>
       </c>
       <c r="D148" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E148">
         <v>201.95870036719299</v>
@@ -4908,18 +7746,18 @@
         <v>30023207</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>986</v>
+        <v>15278</v>
       </c>
       <c r="B149" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C149">
         <v>30023105</v>
       </c>
       <c r="D149" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E149">
         <v>201.95870036719299</v>
@@ -4931,7 +7769,7 @@
         <v>30023207</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>3396</v>
       </c>
@@ -4948,7 +7786,7 @@
         <v>201.76261207788301</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>27765</v>
       </c>
@@ -4965,7 +7803,7 @@
         <v>201.76261207788301</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>27763</v>
       </c>
@@ -4982,7 +7820,7 @@
         <v>201.525174451808</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>675</v>
       </c>
@@ -4999,7 +7837,7 @@
         <v>201.159474130467</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>664</v>
       </c>
@@ -5016,7 +7854,7 @@
         <v>197.75564050839199</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>791</v>
       </c>
@@ -5032,76 +7870,79 @@
       <c r="E155">
         <v>196.99401792384899</v>
       </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H155" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156">
-        <v>37648</v>
+        <v>2139</v>
       </c>
       <c r="B156" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C156">
         <v>30053313</v>
       </c>
       <c r="D156" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E156">
         <v>196.148949553015</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>2139</v>
+        <v>37648</v>
       </c>
       <c r="B157" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C157">
         <v>30053313</v>
       </c>
       <c r="D157" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E157">
         <v>196.148949553015</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="B158" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C158">
         <v>30067315</v>
       </c>
       <c r="D158" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="E158">
         <v>194.98185509157</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B159" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C159">
         <v>30067315</v>
       </c>
       <c r="D159" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E159">
         <v>194.98185509157</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1109</v>
       </c>
@@ -5118,75 +7959,75 @@
         <v>194.718953331275</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161">
-        <v>23223</v>
+        <v>1355</v>
       </c>
       <c r="B161" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C161">
         <v>30073912</v>
       </c>
       <c r="D161" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E161">
         <v>191.23914556710699</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162">
-        <v>1355</v>
+        <v>23223</v>
       </c>
       <c r="B162" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C162">
         <v>30073912</v>
       </c>
       <c r="D162" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E162">
         <v>191.23914556710699</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>31452</v>
+        <v>31451</v>
       </c>
       <c r="B163" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C163">
         <v>30069986</v>
       </c>
       <c r="D163" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E163">
         <v>189.40445034073699</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164">
-        <v>31451</v>
+        <v>31452</v>
       </c>
       <c r="B164" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C164">
         <v>30069986</v>
       </c>
       <c r="D164" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E164">
         <v>189.40445034073699</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>34008</v>
       </c>
@@ -5203,7 +8044,7 @@
         <v>189.104725787413</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>34009</v>
       </c>
@@ -5220,7 +8061,7 @@
         <v>189.104725787413</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>3243</v>
       </c>
@@ -5242,42 +8083,45 @@
       <c r="G167">
         <v>14668493</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H167" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168">
-        <v>23216</v>
+        <v>23215</v>
       </c>
       <c r="B168" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C168">
-        <v>10158893</v>
+        <v>111712</v>
       </c>
       <c r="D168" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="E168">
         <v>187.47742637888601</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169">
-        <v>23215</v>
+        <v>23216</v>
       </c>
       <c r="B169" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C169">
-        <v>111712</v>
+        <v>10158893</v>
       </c>
       <c r="D169" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E169">
         <v>187.47742637888601</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>21963</v>
       </c>
@@ -5294,7 +8138,7 @@
         <v>186.60032302437699</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>1751</v>
       </c>
@@ -5311,7 +8155,7 @@
         <v>186.31465560252801</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>1765</v>
       </c>
@@ -5327,8 +8171,11 @@
       <c r="E172">
         <v>186.31465560252801</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H172" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>2812</v>
       </c>
@@ -5345,7 +8192,7 @@
         <v>186.29347374552401</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>16227</v>
       </c>
@@ -5362,7 +8209,7 @@
         <v>186.29347374552401</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>3583</v>
       </c>
@@ -5379,7 +8226,7 @@
         <v>186.01005961182901</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>26452</v>
       </c>
@@ -5398,16 +8245,16 @@
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A177">
-        <v>11505</v>
+        <v>11504</v>
       </c>
       <c r="B177" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C177">
         <v>30089219</v>
       </c>
       <c r="D177" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E177">
         <v>184.56064632184001</v>
@@ -5415,16 +8262,16 @@
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A178">
-        <v>11504</v>
+        <v>11505</v>
       </c>
       <c r="B178" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C178">
         <v>30089219</v>
       </c>
       <c r="D178" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E178">
         <v>184.56064632184001</v>
@@ -5449,16 +8296,16 @@
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A180">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B180" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C180">
         <v>13410202</v>
       </c>
       <c r="D180" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E180">
         <v>183.34352381339301</v>
@@ -5469,16 +8316,16 @@
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A181">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B181" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="C181">
         <v>13410202</v>
       </c>
       <c r="D181" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E181">
         <v>183.34352381339301</v>
@@ -5523,16 +8370,16 @@
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A184">
-        <v>2366</v>
+        <v>2364</v>
       </c>
       <c r="B184" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C184">
         <v>8696058</v>
       </c>
       <c r="D184" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E184">
         <v>181.09654094967601</v>
@@ -5543,16 +8390,16 @@
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A185">
-        <v>2364</v>
+        <v>2366</v>
       </c>
       <c r="B185" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C185">
         <v>8696058</v>
       </c>
       <c r="D185" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E185">
         <v>181.09654094967601</v>
@@ -5580,16 +8427,16 @@
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A187">
-        <v>14075</v>
+        <v>14074</v>
       </c>
       <c r="B187" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C187">
         <v>30073946</v>
       </c>
       <c r="D187" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E187">
         <v>179.549449269782</v>
@@ -5597,16 +8444,16 @@
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A188">
-        <v>14074</v>
+        <v>14075</v>
       </c>
       <c r="B188" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="C188">
         <v>30073946</v>
       </c>
       <c r="D188" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="E188">
         <v>179.549449269782</v>
@@ -5614,16 +8461,16 @@
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A189">
-        <v>24782</v>
+        <v>24781</v>
       </c>
       <c r="B189" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C189">
         <v>20081650</v>
       </c>
       <c r="D189" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E189">
         <v>178.66565648355899</v>
@@ -5631,16 +8478,16 @@
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A190">
-        <v>24781</v>
+        <v>24782</v>
       </c>
       <c r="B190" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C190">
         <v>20081650</v>
       </c>
       <c r="D190" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E190">
         <v>178.66565648355899</v>
@@ -5682,16 +8529,16 @@
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A193">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B193" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C193">
         <v>30034357</v>
       </c>
       <c r="D193" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E193">
         <v>178.320198557982</v>
@@ -5699,16 +8546,16 @@
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A194">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="B194" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C194">
         <v>30034357</v>
       </c>
       <c r="D194" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E194">
         <v>178.320198557982</v>
@@ -5716,16 +8563,16 @@
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A195">
-        <v>34156</v>
+        <v>34155</v>
       </c>
       <c r="B195" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C195">
-        <v>7794522</v>
+        <v>7794509</v>
       </c>
       <c r="D195" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E195">
         <v>178.13392072103801</v>
@@ -5733,16 +8580,16 @@
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A196">
-        <v>34155</v>
+        <v>34156</v>
       </c>
       <c r="B196" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C196">
-        <v>7794509</v>
+        <v>7794522</v>
       </c>
       <c r="D196" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E196">
         <v>178.13392072103801</v>
@@ -5790,16 +8637,16 @@
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A199">
-        <v>28180</v>
+        <v>28179</v>
       </c>
       <c r="B199" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C199">
         <v>30013782</v>
       </c>
       <c r="D199" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="E199">
         <v>177.66925469909199</v>
@@ -5807,16 +8654,16 @@
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A200">
-        <v>28179</v>
+        <v>28180</v>
       </c>
       <c r="B200" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C200">
         <v>30013782</v>
       </c>
       <c r="D200" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E200">
         <v>177.66925469909199</v>
@@ -5843,6 +8690,10 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="F1:F201"/>
+  <sortState ref="A2:H201">
+    <sortCondition descending="1" ref="E2:E201"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5850,10 +8701,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E43"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5862,7 +8713,7 @@
     <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -5878,8 +8729,11 @@
       <c r="E1" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1686</v>
       </c>
@@ -5895,8 +8749,11 @@
       <c r="E2">
         <v>105462</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2433</v>
       </c>
@@ -5912,8 +8769,11 @@
       <c r="E3" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2434</v>
       </c>
@@ -5929,8 +8789,11 @@
       <c r="E4" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3351</v>
       </c>
@@ -5943,11 +8806,14 @@
       <c r="D5" t="s">
         <v>508</v>
       </c>
-      <c r="E5" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E5">
+        <v>7514990</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3554</v>
       </c>
@@ -5963,8 +8829,11 @@
       <c r="E6" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>20277</v>
       </c>
@@ -5978,10 +8847,13 @@
         <v>495</v>
       </c>
       <c r="E7" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>20278</v>
       </c>
@@ -5995,10 +8867,13 @@
         <v>493</v>
       </c>
       <c r="E8" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>20334</v>
       </c>
@@ -6014,8 +8889,11 @@
       <c r="E9" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>20489</v>
       </c>
@@ -6031,8 +8909,11 @@
       <c r="E10" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>20997</v>
       </c>
@@ -6048,8 +8929,11 @@
       <c r="E11" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>20998</v>
       </c>
@@ -6065,8 +8949,11 @@
       <c r="E12" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>23329</v>
       </c>
@@ -6082,8 +8969,11 @@
       <c r="E13" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>23330</v>
       </c>
@@ -6099,8 +8989,11 @@
       <c r="E14" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>23493</v>
       </c>
@@ -6116,8 +9009,11 @@
       <c r="E15" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>23494</v>
       </c>
@@ -6133,8 +9029,11 @@
       <c r="E16" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>26330</v>
       </c>
@@ -6150,8 +9049,11 @@
       <c r="E17" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>27715</v>
       </c>
@@ -6167,8 +9069,11 @@
       <c r="E18" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>27717</v>
       </c>
@@ -6184,8 +9089,11 @@
       <c r="E19" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>28114</v>
       </c>
@@ -6199,10 +9107,13 @@
         <v>462</v>
       </c>
       <c r="E20" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>28115</v>
       </c>
@@ -6216,10 +9127,13 @@
         <v>480</v>
       </c>
       <c r="E21" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>28288</v>
       </c>
@@ -6235,8 +9149,11 @@
       <c r="E22" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>28508</v>
       </c>
@@ -6252,8 +9169,11 @@
       <c r="E23" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>29421</v>
       </c>
@@ -6269,8 +9189,11 @@
       <c r="E24" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>29422</v>
       </c>
@@ -6286,8 +9209,11 @@
       <c r="E25" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>29586</v>
       </c>
@@ -6303,8 +9229,11 @@
       <c r="E26" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>29587</v>
       </c>
@@ -6320,8 +9249,11 @@
       <c r="E27" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>29614</v>
       </c>
@@ -6337,8 +9269,11 @@
       <c r="E28">
         <v>2597802</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>29615</v>
       </c>
@@ -6354,8 +9289,11 @@
       <c r="E29" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29624</v>
       </c>
@@ -6369,10 +9307,13 @@
         <v>452</v>
       </c>
       <c r="E30" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="F30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29625</v>
       </c>
@@ -6386,10 +9327,13 @@
         <v>454</v>
       </c>
       <c r="E31" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+        <v>367</v>
+      </c>
+      <c r="F31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29626</v>
       </c>
@@ -6405,8 +9349,11 @@
       <c r="E32" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30860</v>
       </c>
@@ -6422,8 +9369,11 @@
       <c r="E33" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>30861</v>
       </c>
@@ -6439,8 +9389,11 @@
       <c r="E34" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>30992</v>
       </c>
@@ -6456,8 +9409,11 @@
       <c r="E35" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>32485</v>
       </c>
@@ -6473,8 +9429,11 @@
       <c r="E36">
         <v>30075834</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>37236</v>
       </c>
@@ -6490,8 +9449,11 @@
       <c r="E37" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>37237</v>
       </c>
@@ -6507,8 +9469,11 @@
       <c r="E38" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37249</v>
       </c>
@@ -6524,8 +9489,11 @@
       <c r="E39" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37808</v>
       </c>
@@ -6541,8 +9509,11 @@
       <c r="E40" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>37810</v>
       </c>
@@ -6558,8 +9529,11 @@
       <c r="E41" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>37249</v>
       </c>
@@ -6575,8 +9549,11 @@
       <c r="E42" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>30861</v>
       </c>
@@ -6591,6 +9568,169 @@
       </c>
       <c r="E43" t="s">
         <v>367</v>
+      </c>
+      <c r="F43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47" t="s">
+        <v>33</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>343</v>
+      </c>
+      <c r="F47" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>16054</v>
+      </c>
+      <c r="B48" t="s">
+        <v>531</v>
+      </c>
+      <c r="C48">
+        <v>30043655</v>
+      </c>
+      <c r="D48" t="s">
+        <v>532</v>
+      </c>
+      <c r="E48" t="s">
+        <v>367</v>
+      </c>
+      <c r="F48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>20608</v>
+      </c>
+      <c r="B49" t="s">
+        <v>533</v>
+      </c>
+      <c r="C49">
+        <v>7640</v>
+      </c>
+      <c r="D49" t="s">
+        <v>534</v>
+      </c>
+      <c r="E49">
+        <v>7074349</v>
+      </c>
+      <c r="F49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>20609</v>
+      </c>
+      <c r="B50" t="s">
+        <v>535</v>
+      </c>
+      <c r="C50">
+        <v>7505</v>
+      </c>
+      <c r="D50" t="s">
+        <v>536</v>
+      </c>
+      <c r="E50">
+        <v>7074349</v>
+      </c>
+      <c r="F50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>32486</v>
+      </c>
+      <c r="B51" t="s">
+        <v>537</v>
+      </c>
+      <c r="C51">
+        <v>30075834</v>
+      </c>
+      <c r="D51" t="s">
+        <v>538</v>
+      </c>
+      <c r="E51" t="s">
+        <v>367</v>
+      </c>
+      <c r="F51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>32797</v>
+      </c>
+      <c r="B52" t="s">
+        <v>539</v>
+      </c>
+      <c r="C52">
+        <v>14673518</v>
+      </c>
+      <c r="D52" t="s">
+        <v>540</v>
+      </c>
+      <c r="E52" t="s">
+        <v>367</v>
+      </c>
+      <c r="F52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>37224</v>
+      </c>
+      <c r="B53" t="s">
+        <v>541</v>
+      </c>
+      <c r="C53">
+        <v>111270</v>
+      </c>
+      <c r="D53" t="s">
+        <v>542</v>
+      </c>
+      <c r="E53">
+        <v>111323</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>37225</v>
+      </c>
+      <c r="B54" t="s">
+        <v>543</v>
+      </c>
+      <c r="C54">
+        <v>2880185</v>
+      </c>
+      <c r="D54" t="s">
+        <v>544</v>
+      </c>
+      <c r="E54">
+        <v>111323</v>
+      </c>
+      <c r="F54">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -6600,10 +9740,468 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="66.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>344</v>
+      </c>
+      <c r="F1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>331</v>
+      </c>
+      <c r="B2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2">
+        <v>444453</v>
+      </c>
+      <c r="D2" t="s">
+        <v>517</v>
+      </c>
+      <c r="E2" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>797</v>
+      </c>
+      <c r="B3" t="s">
+        <v>463</v>
+      </c>
+      <c r="C3">
+        <v>8206167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>518</v>
+      </c>
+      <c r="E3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2563</v>
+      </c>
+      <c r="B4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C4">
+        <v>20040541</v>
+      </c>
+      <c r="D4" t="s">
+        <v>520</v>
+      </c>
+      <c r="E4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>26542</v>
+      </c>
+      <c r="B5" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5">
+        <v>14673743</v>
+      </c>
+      <c r="D5" t="s">
+        <v>522</v>
+      </c>
+      <c r="E5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>28511</v>
+      </c>
+      <c r="B6" t="s">
+        <v>523</v>
+      </c>
+      <c r="C6">
+        <v>30000633</v>
+      </c>
+      <c r="D6" t="s">
+        <v>524</v>
+      </c>
+      <c r="E6" t="s">
+        <v>367</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>32956</v>
+      </c>
+      <c r="B7" t="s">
+        <v>525</v>
+      </c>
+      <c r="C7">
+        <v>30041460</v>
+      </c>
+      <c r="D7" t="s">
+        <v>526</v>
+      </c>
+      <c r="E7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>32957</v>
+      </c>
+      <c r="B8" t="s">
+        <v>525</v>
+      </c>
+      <c r="C8">
+        <v>30041460</v>
+      </c>
+      <c r="D8" t="s">
+        <v>527</v>
+      </c>
+      <c r="E8" t="s">
+        <v>367</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>33209</v>
+      </c>
+      <c r="B9" t="s">
+        <v>528</v>
+      </c>
+      <c r="C9">
+        <v>14042108</v>
+      </c>
+      <c r="D9" t="s">
+        <v>529</v>
+      </c>
+      <c r="E9" t="s">
+        <v>367</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>33210</v>
+      </c>
+      <c r="B10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C10">
+        <v>14042108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>530</v>
+      </c>
+      <c r="E10" t="s">
+        <v>367</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>3741</v>
+      </c>
+      <c r="B14" t="s">
+        <v>546</v>
+      </c>
+      <c r="C14">
+        <v>442161</v>
+      </c>
+      <c r="D14" t="s">
+        <v>547</v>
+      </c>
+      <c r="E14" t="s">
+        <v>367</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>25948</v>
+      </c>
+      <c r="B15" t="s">
+        <v>548</v>
+      </c>
+      <c r="C15">
+        <v>20035434</v>
+      </c>
+      <c r="D15" t="s">
+        <v>549</v>
+      </c>
+      <c r="E15" t="s">
+        <v>367</v>
+      </c>
+      <c r="F15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>25949</v>
+      </c>
+      <c r="B16" t="s">
+        <v>548</v>
+      </c>
+      <c r="C16">
+        <v>20035434</v>
+      </c>
+      <c r="D16" t="s">
+        <v>550</v>
+      </c>
+      <c r="E16" t="s">
+        <v>367</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>28195</v>
+      </c>
+      <c r="B17" t="s">
+        <v>551</v>
+      </c>
+      <c r="C17">
+        <v>20051855</v>
+      </c>
+      <c r="D17" t="s">
+        <v>552</v>
+      </c>
+      <c r="E17" t="s">
+        <v>367</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>28196</v>
+      </c>
+      <c r="B18" t="s">
+        <v>551</v>
+      </c>
+      <c r="C18">
+        <v>20051855</v>
+      </c>
+      <c r="D18" t="s">
+        <v>553</v>
+      </c>
+      <c r="E18" t="s">
+        <v>367</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>28197</v>
+      </c>
+      <c r="B19" t="s">
+        <v>554</v>
+      </c>
+      <c r="C19">
+        <v>20051856</v>
+      </c>
+      <c r="D19" t="s">
+        <v>555</v>
+      </c>
+      <c r="E19" t="s">
+        <v>367</v>
+      </c>
+      <c r="F19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>28198</v>
+      </c>
+      <c r="B20" t="s">
+        <v>554</v>
+      </c>
+      <c r="C20">
+        <v>20051856</v>
+      </c>
+      <c r="D20" t="s">
+        <v>556</v>
+      </c>
+      <c r="E20" t="s">
+        <v>367</v>
+      </c>
+      <c r="F20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>31566</v>
+      </c>
+      <c r="B21" t="s">
+        <v>557</v>
+      </c>
+      <c r="C21">
+        <v>30037426</v>
+      </c>
+      <c r="D21" t="s">
+        <v>558</v>
+      </c>
+      <c r="E21" t="s">
+        <v>367</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>36196</v>
+      </c>
+      <c r="B22" t="s">
+        <v>559</v>
+      </c>
+      <c r="C22">
+        <v>20056037</v>
+      </c>
+      <c r="D22" t="s">
+        <v>560</v>
+      </c>
+      <c r="E22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>36197</v>
+      </c>
+      <c r="B23" t="s">
+        <v>559</v>
+      </c>
+      <c r="C23">
+        <v>20056037</v>
+      </c>
+      <c r="D23" t="s">
+        <v>561</v>
+      </c>
+      <c r="E23" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>36290</v>
+      </c>
+      <c r="B24" t="s">
+        <v>562</v>
+      </c>
+      <c r="C24">
+        <v>20056037</v>
+      </c>
+      <c r="D24" t="s">
+        <v>563</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>36291</v>
+      </c>
+      <c r="B25" t="s">
+        <v>562</v>
+      </c>
+      <c r="C25">
+        <v>20044155</v>
+      </c>
+      <c r="D25" t="s">
+        <v>564</v>
+      </c>
+      <c r="E25" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Matching arterycodes to TCL/issues and manual corrections.xlsx
+++ b/Matching arterycodes to TCL/issues and manual corrections.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13770"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="case 2 - h-dist" sheetId="2" r:id="rId1"/>
-    <sheet name="case 3+4 - tcs" sheetId="3" r:id="rId2"/>
-    <sheet name="case 3+4 - intersections" sheetId="4" r:id="rId3"/>
-    <sheet name="case 5" sheetId="1" r:id="rId4"/>
+    <sheet name="case 12" sheetId="6" r:id="rId2"/>
+    <sheet name="case 3+4 - tcs" sheetId="3" r:id="rId3"/>
+    <sheet name="case 3+4 - intersections" sheetId="4" r:id="rId4"/>
+    <sheet name="case 5" sheetId="1" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'case 2 - h-dist'!$F$1:$F$201</definedName>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1765" uniqueCount="805">
   <si>
     <t>Arterycode</t>
   </si>
@@ -1995,6 +1996,457 @@
   </si>
   <si>
     <t>wrong desc: geometry on lake shore blvd</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(302047.732230423 4841055.38707466,302096.769986413 4841051.33671508)</t>
+  </si>
+  <si>
+    <t>KNOB HILL DR E/B W OF CROSSROADS PL</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(326540.058074586 4846357.40777511,326722.970141714 4846412.36265387)</t>
+  </si>
+  <si>
+    <t>LAWRENCE AVE E/B W OF CEDARBRAE MALL E TCS</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(326722.970141714 4846412.36265387,326540.058074586 4846357.40777511)</t>
+  </si>
+  <si>
+    <t>LAWRENCE AVE W/B E OF CEDARBRAE MALL W TCS</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(311714.125628871 4832144.9960319,311750.955499434 4832184.87957267)</t>
+  </si>
+  <si>
+    <t>REMEMBRANCE DR N/B S OF LAKE SHORE BLVD( ONT PLACE EXITS)</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(322644.175394753 4840448.39318722,322856.980284035 4840543.39162095)</t>
+  </si>
+  <si>
+    <t>BELL ESTATE RD E/B W OF ETHEL BELL TER E LEG</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(322856.980284035 4840543.39162095,322644.175394753 4840448.39318722)</t>
+  </si>
+  <si>
+    <t>BELL ESTATE RD W/B E OF WARDEN AVE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OVERLEA BLVD E/B W OF EAST YORK TOWN CENTRE E_x000D_
+</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(300793.281268487 4842856.4969728,301032.861019997 4843081.33693354)</t>
+  </si>
+  <si>
+    <t>TANDRIDGE CRES N/B N OF ARCOT BLVD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(303511.820630286 4831270.1183624,303552.428346474 4831282.02941983)</t>
+  </si>
+  <si>
+    <t>THE QUEENSWAY E/B W OF THEATRE ENT</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(306815.620866897 4832468.11471759,307024.532430556 4832512.1586277)</t>
+  </si>
+  <si>
+    <t>THE QUEENSWAY E/B TO F G GARDINER EXPY E/B</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(315459.612109383 4851572.01071482,315829.972957818 4851249.59209128)</t>
+  </si>
+  <si>
+    <t>FRANCINE DR E/B E OF MARISA CRT</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(315829.972957818 4851249.59209128,315459.612109383 4851572.01071482)</t>
+  </si>
+  <si>
+    <t>FRANCINE DR W/B E OF MARISA CRT</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(320459.846500394 4852787.19859623,320467.088745938 4852740.06441178)</t>
+  </si>
+  <si>
+    <t>SHEPTON WAY S/B N OF WEST HIGHTLAND CREEK</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(303885.736612924 4847932.29758998,303861.865247771 4847853.9706363)</t>
+  </si>
+  <si>
+    <t>IAN MACDONALD BLVD S/B N OF SHOREHAM DR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(303907.372615272 4847861.02126224,303885.736612924 4847932.29758998)</t>
+  </si>
+  <si>
+    <t>IAN MACDONALD LANE N/B N OF ARBORETUM LANE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(294407.31165577 4843530.50680974,294506.376996298 4843425.49748727)</t>
+  </si>
+  <si>
+    <t>FINCH AVE E/B TO HIGHWAY 427 S/B</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(331944.686918947 4847659.00332758,331914.373419659 4847449.00468442)</t>
+  </si>
+  <si>
+    <t>RAVENVIEW DR S/B S OF DUNSTALL CRES</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(331914.373419659 4847449.00468442,331944.686918947 4847659.00332758)</t>
+  </si>
+  <si>
+    <t>RAVENVIEW DR N/B S OF DUNSTALL CRES</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(306600.25067196 4831414.19115283,306429.431010262 4831175.70998105)</t>
+  </si>
+  <si>
+    <t>MARINE PARADE DR W/B E OF PARK LAWN RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(299950.186554024 4846034.75913115,299464.692148295 4846516.5819062)</t>
+  </si>
+  <si>
+    <t>MILVAN DR N/B S OF MILLWICK DR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(327334.247010199 4852932.00145148,326959.695887577 4852817.50128643)</t>
+  </si>
+  <si>
+    <t>FINCH AVE E W/B E OF BLACKBIRD GT</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(294844.230225498 4843668.80908788,294513.025344713 4843856.9457902)</t>
+  </si>
+  <si>
+    <t>FINCH AVE W/B TO HIGHWAY 427 N/B</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(310854.517274796 4837819.36978895,310722.688609324 4837788.42704193)</t>
+  </si>
+  <si>
+    <t>LN N OF ST CLAIR AVE W/B E OF HUMEWOOD DR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(310722.688609324 4837788.42704193,310854.517274796 4837819.36978895)</t>
+  </si>
+  <si>
+    <t>LN N OF ST CLAIR AVE E/B E OF HUMEWOOD DR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(317999.487418239 4846267.70981194,317999.487418239 4846267.70981194)</t>
+  </si>
+  <si>
+    <t>RAMP YORK MILLS RD W/B TO DON VALLEY PKWY S/B</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(323893.62772252 4846978.99295792,324072.687706881 4846799.99706711)</t>
+  </si>
+  <si>
+    <t>APPLEFIELD DR S/B S OF WATERFIELD DR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(317737.570535826 4839410.56105102,317973.248713142 4839531.15175677)</t>
+  </si>
+  <si>
+    <t>FOUR OAKS GT N/B N OF DUNSTAN CR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(317973.248713142 4839531.15175677,317737.570535826 4839410.56105102)</t>
+  </si>
+  <si>
+    <t>FOUR OAKS GT S/B N OF DUNSTAN CR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(317145.323121179 4843850.72523795,317014.228578547 4843625.45523903)</t>
+  </si>
+  <si>
+    <t>THE DONWAY W S/B N OF SANDERLING PL</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(317014.228578547 4843625.45523903,317145.323121179 4843850.72523795)</t>
+  </si>
+  <si>
+    <t>THE DONWAY WEST N/B S OF LAWRENCE AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(306734.826111653 4831874.15198703,306600.25067196 4831414.19115283)</t>
+  </si>
+  <si>
+    <t>MARINE PARADE DR S/B N OF HUMBER BAY PARK</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(315181.123847359 4838357.00751911,315049.748853305 4838171.5010503)</t>
+  </si>
+  <si>
+    <t>DOUGLAS DR S/B S OF GLEN RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(315049.748853305 4838171.5010503,315181.123847359 4838357.00751911)</t>
+  </si>
+  <si>
+    <t>DOUGLAS DR N/B S OF GLEN RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(312246.801862062 4839404.23048901,312054.973089429 4839654.92274486)</t>
+  </si>
+  <si>
+    <t>FOREST HILL RD N/B N OF HILHOLM RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(312054.973089429 4839654.92274486,312246.801862062 4839404.23048901)</t>
+  </si>
+  <si>
+    <t>FOREST HILL RD S/B N OF HILHOLM RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(294394.938798918 4843547.49831821,294351.097642806 4843531.95693848)</t>
+  </si>
+  <si>
+    <t>FINCH AVE W/B E OF LONGO CIR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(294351.097642806 4843531.95693848,294394.938798918 4843547.49831821)</t>
+  </si>
+  <si>
+    <t>FINCH AVE E/B E OF LONGO CIR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(308274.306452602 4845274.98167996,308078.353394351 4845342.64768719)</t>
+  </si>
+  <si>
+    <t>FINDLAY BLVD N/B N OF EMBRO DR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(308078.353394351 4845342.64768719,308274.306452602 4845274.98167996)</t>
+  </si>
+  <si>
+    <t>FINDLAY BLVD S/B N OF EMBRO DR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(317830.457696499 4846215.09514094,318057.829562582 4846023.49813143)</t>
+  </si>
+  <si>
+    <t>RAMP YORK MILLS RD E/B &amp; W/B TO DON VALLEY PKWY S/B</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(310931.270230134 4844354.14993077,311077.682369549 4844273.37275957)</t>
+  </si>
+  <si>
+    <t>HIGHWAY 401 E/B TO AVENUE RD S/B</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(299621.349013183 4831671.79402218,299638.728752775 4831678.49461705)</t>
+  </si>
+  <si>
+    <t>DUNDAS ST E/B W OF ETOBICOKE CREEK BRIDGE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(318623.02166358 4840051.25793053,318846.632181179 4840208.23186629)</t>
+  </si>
+  <si>
+    <t>ALDER RD N/B S OF PARKVIEW HILL CR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(318846.632181179 4840208.23186629,318623.02166358 4840051.25793053)</t>
+  </si>
+  <si>
+    <t>ALDER RD S/B S OF PARKVIEW HILL CR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(297911.428444814 4840787.03325086,298478.385740055 4840624.88885608)</t>
+  </si>
+  <si>
+    <t>BETHRIDGE RD E/B W OF MARTIN GROVE RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(309603.753424202 4846914.00718865,309567.006039352 4846903.89629102)</t>
+  </si>
+  <si>
+    <t>BETTY ANN DR W/B E OF BATHURST ST</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(310854.517274796 4837819.36978895,310962.928246533 4837850.80257947)</t>
+  </si>
+  <si>
+    <t>LN N OF ST CLAIR AVE E/B E  OF PINEWOOD AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(310962.928246533 4837850.80257947,310854.517274796 4837819.36978895)</t>
+  </si>
+  <si>
+    <t>LN N OF ST CLAIR AVE W/B W OF PINEWOOD AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(319981.561345925 4848464.00479365,320188.311783921 4848324.5524134)</t>
+  </si>
+  <si>
+    <t>PALMDALE DR SB S OF SHEPPARD AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(320188.311783921 4848324.5524134,319981.561345925 4848464.00479365)</t>
+  </si>
+  <si>
+    <t>PALMDALE DR NB S OF SHEPPARD AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(314414.188191105 4833221.18157303,314414.188191105 4833221.18157303)</t>
+  </si>
+  <si>
+    <t>RAMP F G GARDINER EXPY E/B TO YORK ST</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(301106.908443971 4842153.00451845,301254.252671935 4842026.00324359)</t>
+  </si>
+  <si>
+    <t>ALBION RD E/B E OF ARMEL CRT</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(301254.252671935 4842026.00324359,301106.908443971 4842153.00451845)</t>
+  </si>
+  <si>
+    <t>ALBION RD W/B E OF ARMEL CRT</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(307424.20870116 4845552.61632769,307732.680519621 4845366.83983491)</t>
+  </si>
+  <si>
+    <t>SHEPPARD AVE E/B W OF W R ALLEN RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(307732.680519621 4845366.83983491,307424.20870116 4845552.61632769)</t>
+  </si>
+  <si>
+    <t>SHEPPARD AVE W/B E OF KODIAK CR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(308585.558039569 4844620.15354592,308478.235879236 4844443.48786197)</t>
+  </si>
+  <si>
+    <t>WILSON HEIGHTS S/B TO W R ALLEN RD SB &amp; NB</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(312847.998976498 4838223.42566004,312778.570752417 4838124.85690935)</t>
+  </si>
+  <si>
+    <t>FOXBAR RD S/B N OF AVENUE RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(327749.669803289 4853599.5307131,327736.719546451 4853700.07963958)</t>
+  </si>
+  <si>
+    <t>KNOWLES DR S/B N OF OSPREY CRT</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(327736.719546451 4853700.07963958,327749.669803289 4853599.5307131)</t>
+  </si>
+  <si>
+    <t>KNOWLES DR N/B N OF OSPREY CRT</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(319349.374349359 4846108.12564445,319343.204418076 4846248.4781046)</t>
+  </si>
+  <si>
+    <t>COMBERMERE DR W/B E OF PARKWOOD VILLAGE DR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(319343.204418076 4846248.4781046,319349.374349359 4846108.12564445)</t>
+  </si>
+  <si>
+    <t>COMBERMERE DR E/B W OF CANNONBURY CRT</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(327495.374600697 4853135.6995353,327704.187181502 4853017.3690302)</t>
+  </si>
+  <si>
+    <t>FINCH AVE S/B N OF OLD FINCH AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(327704.187181502 4853017.3690302,327495.374600697 4853135.6995353)</t>
+  </si>
+  <si>
+    <t>MORNINGSIDE AVE N/B N OF OLD FINCH AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(305527.276525758 4843935.38275364,305833.166541424 4843852.52539777)</t>
+  </si>
+  <si>
+    <t>WHITBURN CRES E/B W OF BLAYDON AV</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(305833.166541424 4843852.52539777,305527.276525758 4843935.38275364)</t>
+  </si>
+  <si>
+    <t>WHITBURN CRES W/B E OF SKIPTON CRT</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(319798.063630239 4836018.57991922,319897.590890756 4836161.49260666)</t>
+  </si>
+  <si>
+    <t>EASTERN AVE N/B S OF QUEEN ST</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(319897.590890756 4836161.49260666,319798.063630239 4836018.57991922)</t>
+  </si>
+  <si>
+    <t>EASTERN AVE S/B S OF QUEEN ST</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(309571.616990672 4840861.71988136,309700.624644782 4841005.54264959)</t>
+  </si>
+  <si>
+    <t>GLEN PARK AVE N/B N OF GLENCAIRN AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(309700.624644782 4841005.54264959,309571.616990672 4840861.71988136)</t>
+  </si>
+  <si>
+    <t>GLEN PARK AVE S/B N OF GLENCAIRN AVE</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(311758.890624962 4849454.62273829,311626.92998235 4849317.77058889)</t>
+  </si>
+  <si>
+    <t>AVERILL CRES S/B N OF MULLET RD</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(311626.92998235 4849317.77058889,311758.890624962 4849454.62273829)</t>
+  </si>
+  <si>
+    <t>AVERILL CRES N/B S OF SILVERVIEW DR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(302300.484950194 4842637.22750659,302141.172045369 4842712.58419657)</t>
+  </si>
+  <si>
+    <t>ROCKBANK CRES N/B S OF STARVIEW DR</t>
+  </si>
+  <si>
+    <t>SRID=82181;LINESTRING(302141.172045369 4842712.58419657,302300.484950194 4842637.22750659)</t>
+  </si>
+  <si>
+    <t>ROCKBANK CRES S/B N OF STARVIEW DR</t>
+  </si>
+  <si>
+    <t>does not exist</t>
+  </si>
+  <si>
+    <t>wrong desc</t>
+  </si>
+  <si>
+    <t>out of toronto boundary</t>
+  </si>
+  <si>
+    <t>I am super confused by this one</t>
+  </si>
+  <si>
+    <t>wrong: not finch, morningside</t>
   </si>
 </sst>
 </file>
@@ -2316,8 +2768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView topLeftCell="E28" workbookViewId="0">
+      <selection activeCell="P53" sqref="P53:P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8701,6 +9153,2668 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J98" sqref="J98"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>15841</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2">
+        <v>14049225</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2">
+        <v>821.38097406071495</v>
+      </c>
+      <c r="H2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>15842</v>
+      </c>
+      <c r="B3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3">
+        <v>14049225</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3">
+        <v>821.38097406071495</v>
+      </c>
+      <c r="H3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>26167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>252</v>
+      </c>
+      <c r="E4">
+        <v>8885835</v>
+      </c>
+      <c r="F4" t="s">
+        <v>253</v>
+      </c>
+      <c r="G4">
+        <v>516.81129859555404</v>
+      </c>
+      <c r="H4" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>22873</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5">
+        <v>914084</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5">
+        <v>474.73744646029797</v>
+      </c>
+      <c r="H5" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>27357</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>349</v>
+      </c>
+      <c r="E6">
+        <v>30038151</v>
+      </c>
+      <c r="F6" t="s">
+        <v>350</v>
+      </c>
+      <c r="G6">
+        <v>430.11296438119598</v>
+      </c>
+      <c r="H6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>37244</v>
+      </c>
+      <c r="B7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E7">
+        <v>14677598</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7">
+        <v>399.00049821458401</v>
+      </c>
+      <c r="H7" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6522</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8">
+        <v>14677598</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+      <c r="G8">
+        <v>399.00049821458401</v>
+      </c>
+      <c r="H8" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>32081</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9">
+        <v>30055310</v>
+      </c>
+      <c r="F9" t="s">
+        <v>354</v>
+      </c>
+      <c r="G9">
+        <v>370.99299351475503</v>
+      </c>
+      <c r="H9" t="s">
+        <v>367</v>
+      </c>
+      <c r="I9" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>32082</v>
+      </c>
+      <c r="B10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>351</v>
+      </c>
+      <c r="E10">
+        <v>30055310</v>
+      </c>
+      <c r="F10" t="s">
+        <v>352</v>
+      </c>
+      <c r="G10">
+        <v>370.99299351475503</v>
+      </c>
+      <c r="H10" t="s">
+        <v>367</v>
+      </c>
+      <c r="I10" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>455</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>293</v>
+      </c>
+      <c r="E11">
+        <v>2967295</v>
+      </c>
+      <c r="F11" t="s">
+        <v>294</v>
+      </c>
+      <c r="G11">
+        <v>315.66848809862398</v>
+      </c>
+      <c r="H11">
+        <v>906898</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>28506</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12">
+        <v>2967295</v>
+      </c>
+      <c r="F12" t="s">
+        <v>296</v>
+      </c>
+      <c r="G12">
+        <v>315.66848809862398</v>
+      </c>
+      <c r="H12">
+        <v>906898</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>23587</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>94</v>
+      </c>
+      <c r="E13">
+        <v>443573</v>
+      </c>
+      <c r="F13" t="s">
+        <v>95</v>
+      </c>
+      <c r="G13">
+        <v>311.24049275696001</v>
+      </c>
+      <c r="H13" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>23553</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14">
+        <v>443573</v>
+      </c>
+      <c r="F14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G14">
+        <v>311.24049275696001</v>
+      </c>
+      <c r="H14" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>3512</v>
+      </c>
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>359</v>
+      </c>
+      <c r="E15">
+        <v>14308141</v>
+      </c>
+      <c r="F15" t="s">
+        <v>360</v>
+      </c>
+      <c r="G15">
+        <v>298.53323658976302</v>
+      </c>
+      <c r="H15" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>3243</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>331</v>
+      </c>
+      <c r="E16">
+        <v>14668493</v>
+      </c>
+      <c r="F16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G16">
+        <v>296.41020978882301</v>
+      </c>
+      <c r="H16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>30546</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>655</v>
+      </c>
+      <c r="E17">
+        <v>20059734</v>
+      </c>
+      <c r="F17" t="s">
+        <v>656</v>
+      </c>
+      <c r="G17">
+        <v>283.84933884210602</v>
+      </c>
+      <c r="H17" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16228</v>
+      </c>
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>657</v>
+      </c>
+      <c r="E18">
+        <v>11485087</v>
+      </c>
+      <c r="F18" t="s">
+        <v>658</v>
+      </c>
+      <c r="G18">
+        <v>273.05210342203998</v>
+      </c>
+      <c r="H18" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16229</v>
+      </c>
+      <c r="B19" t="s">
+        <v>584</v>
+      </c>
+      <c r="C19" t="s">
+        <v>577</v>
+      </c>
+      <c r="D19" t="s">
+        <v>659</v>
+      </c>
+      <c r="E19">
+        <v>11485087</v>
+      </c>
+      <c r="F19" t="s">
+        <v>660</v>
+      </c>
+      <c r="G19">
+        <v>273.05210342203998</v>
+      </c>
+      <c r="H19" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>16510</v>
+      </c>
+      <c r="B20" t="s">
+        <v>584</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20">
+        <v>13971133</v>
+      </c>
+      <c r="F20" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20">
+        <v>267.10480645476599</v>
+      </c>
+      <c r="H20" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>16509</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>128</v>
+      </c>
+      <c r="E21">
+        <v>13971133</v>
+      </c>
+      <c r="F21" t="s">
+        <v>129</v>
+      </c>
+      <c r="G21">
+        <v>267.10480645476599</v>
+      </c>
+      <c r="H21" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>24126</v>
+      </c>
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D22" t="s">
+        <v>160</v>
+      </c>
+      <c r="E22">
+        <v>30029305</v>
+      </c>
+      <c r="F22" t="s">
+        <v>161</v>
+      </c>
+      <c r="G22">
+        <v>257.86086466498699</v>
+      </c>
+      <c r="H22">
+        <v>30029306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>3823</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>661</v>
+      </c>
+      <c r="E23">
+        <v>30021327</v>
+      </c>
+      <c r="F23" t="s">
+        <v>662</v>
+      </c>
+      <c r="G23">
+        <v>243.91482263914699</v>
+      </c>
+      <c r="H23">
+        <v>30037208</v>
+      </c>
+      <c r="I23" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>34316</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>663</v>
+      </c>
+      <c r="E24">
+        <v>112499</v>
+      </c>
+      <c r="F24" t="s">
+        <v>664</v>
+      </c>
+      <c r="G24">
+        <v>233.037996309188</v>
+      </c>
+      <c r="H24">
+        <v>30012958</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>34317</v>
+      </c>
+      <c r="B25" t="s">
+        <v>584</v>
+      </c>
+      <c r="C25" t="s">
+        <v>577</v>
+      </c>
+      <c r="D25" t="s">
+        <v>665</v>
+      </c>
+      <c r="E25">
+        <v>112499</v>
+      </c>
+      <c r="F25" t="s">
+        <v>666</v>
+      </c>
+      <c r="G25">
+        <v>233.037996309188</v>
+      </c>
+      <c r="H25">
+        <v>30012958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>26613</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" t="s">
+        <v>355</v>
+      </c>
+      <c r="E26">
+        <v>30007958</v>
+      </c>
+      <c r="F26" t="s">
+        <v>356</v>
+      </c>
+      <c r="G26">
+        <v>230.74923735018101</v>
+      </c>
+      <c r="H26" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>26614</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" t="s">
+        <v>357</v>
+      </c>
+      <c r="E27">
+        <v>30007958</v>
+      </c>
+      <c r="F27" t="s">
+        <v>358</v>
+      </c>
+      <c r="G27">
+        <v>230.74923735018101</v>
+      </c>
+      <c r="H27" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26452</v>
+      </c>
+      <c r="B28" t="s">
+        <v>584</v>
+      </c>
+      <c r="C28" t="s">
+        <v>577</v>
+      </c>
+      <c r="D28" t="s">
+        <v>378</v>
+      </c>
+      <c r="E28">
+        <v>444811</v>
+      </c>
+      <c r="F28" t="s">
+        <v>379</v>
+      </c>
+      <c r="G28">
+        <v>221.628515328925</v>
+      </c>
+      <c r="H28" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>30586</v>
+      </c>
+      <c r="B29" t="s">
+        <v>584</v>
+      </c>
+      <c r="C29" t="s">
+        <v>577</v>
+      </c>
+      <c r="D29" t="s">
+        <v>283</v>
+      </c>
+      <c r="E29">
+        <v>443179</v>
+      </c>
+      <c r="F29" t="s">
+        <v>284</v>
+      </c>
+      <c r="G29">
+        <v>219.176009918772</v>
+      </c>
+      <c r="H29" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>34009</v>
+      </c>
+      <c r="B30" t="s">
+        <v>584</v>
+      </c>
+      <c r="C30" t="s">
+        <v>577</v>
+      </c>
+      <c r="D30" t="s">
+        <v>363</v>
+      </c>
+      <c r="E30">
+        <v>9344363</v>
+      </c>
+      <c r="F30" t="s">
+        <v>364</v>
+      </c>
+      <c r="G30">
+        <v>217.757391033673</v>
+      </c>
+      <c r="H30">
+        <v>30073636</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>34008</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>365</v>
+      </c>
+      <c r="E31">
+        <v>9344363</v>
+      </c>
+      <c r="F31" t="s">
+        <v>366</v>
+      </c>
+      <c r="G31">
+        <v>217.757391033673</v>
+      </c>
+      <c r="H31">
+        <v>30073636</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29430</v>
+      </c>
+      <c r="B32" t="s">
+        <v>11</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32">
+        <v>649</v>
+      </c>
+      <c r="F32" t="s">
+        <v>667</v>
+      </c>
+      <c r="G32">
+        <v>213.145067031118</v>
+      </c>
+      <c r="H32" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>29970</v>
+      </c>
+      <c r="B33" t="s">
+        <v>584</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>43</v>
+      </c>
+      <c r="E33">
+        <v>4124720</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33">
+        <v>205.10786986894001</v>
+      </c>
+      <c r="H33">
+        <v>104477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>30618</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>668</v>
+      </c>
+      <c r="E34">
+        <v>30083324</v>
+      </c>
+      <c r="F34" t="s">
+        <v>669</v>
+      </c>
+      <c r="G34">
+        <v>192.65067786979699</v>
+      </c>
+      <c r="H34" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>22857</v>
+      </c>
+      <c r="B35" t="s">
+        <v>11</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>670</v>
+      </c>
+      <c r="E35">
+        <v>20040308</v>
+      </c>
+      <c r="F35" t="s">
+        <v>671</v>
+      </c>
+      <c r="G35">
+        <v>185.23620189718</v>
+      </c>
+      <c r="H35" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>12771</v>
+      </c>
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" t="s">
+        <v>345</v>
+      </c>
+      <c r="E36">
+        <v>30029984</v>
+      </c>
+      <c r="F36" t="s">
+        <v>346</v>
+      </c>
+      <c r="G36">
+        <v>180.578387777503</v>
+      </c>
+      <c r="H36" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>12772</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" t="s">
+        <v>347</v>
+      </c>
+      <c r="E37">
+        <v>30029984</v>
+      </c>
+      <c r="F37" t="s">
+        <v>348</v>
+      </c>
+      <c r="G37">
+        <v>180.578387777503</v>
+      </c>
+      <c r="H37" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1295</v>
+      </c>
+      <c r="B38" t="s">
+        <v>11</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>672</v>
+      </c>
+      <c r="E38">
+        <v>30006420</v>
+      </c>
+      <c r="F38" t="s">
+        <v>673</v>
+      </c>
+      <c r="G38">
+        <v>173.212809581865</v>
+      </c>
+      <c r="H38" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>26231</v>
+      </c>
+      <c r="B39" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" t="s">
+        <v>577</v>
+      </c>
+      <c r="D39" t="s">
+        <v>674</v>
+      </c>
+      <c r="E39">
+        <v>30006223</v>
+      </c>
+      <c r="F39" t="s">
+        <v>675</v>
+      </c>
+      <c r="G39">
+        <v>165.70834606353199</v>
+      </c>
+      <c r="H39" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>26230</v>
+      </c>
+      <c r="B40" t="s">
+        <v>584</v>
+      </c>
+      <c r="C40" t="s">
+        <v>577</v>
+      </c>
+      <c r="D40" t="s">
+        <v>676</v>
+      </c>
+      <c r="E40">
+        <v>30006223</v>
+      </c>
+      <c r="F40" t="s">
+        <v>677</v>
+      </c>
+      <c r="G40">
+        <v>165.70834606353199</v>
+      </c>
+      <c r="H40" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>35436</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>678</v>
+      </c>
+      <c r="E41">
+        <v>30011000</v>
+      </c>
+      <c r="F41" t="s">
+        <v>679</v>
+      </c>
+      <c r="G41">
+        <v>156.17312276456801</v>
+      </c>
+      <c r="H41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>30650</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>680</v>
+      </c>
+      <c r="E42">
+        <v>30077643</v>
+      </c>
+      <c r="F42" t="s">
+        <v>681</v>
+      </c>
+      <c r="G42">
+        <v>152.26763925022601</v>
+      </c>
+      <c r="H42" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>30649</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>682</v>
+      </c>
+      <c r="E43">
+        <v>30077643</v>
+      </c>
+      <c r="F43" t="s">
+        <v>683</v>
+      </c>
+      <c r="G43">
+        <v>152.26763925022601</v>
+      </c>
+      <c r="H43" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1189</v>
+      </c>
+      <c r="B44" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>684</v>
+      </c>
+      <c r="E44">
+        <v>30076029</v>
+      </c>
+      <c r="F44" t="s">
+        <v>685</v>
+      </c>
+      <c r="G44">
+        <v>151.91418678343999</v>
+      </c>
+      <c r="H44" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>32994</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" t="s">
+        <v>14</v>
+      </c>
+      <c r="D45" t="s">
+        <v>686</v>
+      </c>
+      <c r="E45">
+        <v>30059997</v>
+      </c>
+      <c r="F45" t="s">
+        <v>687</v>
+      </c>
+      <c r="G45">
+        <v>146.37831805536101</v>
+      </c>
+      <c r="H45" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>32993</v>
+      </c>
+      <c r="B46" t="s">
+        <v>15</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D46" t="s">
+        <v>688</v>
+      </c>
+      <c r="E46">
+        <v>30059997</v>
+      </c>
+      <c r="F46" t="s">
+        <v>689</v>
+      </c>
+      <c r="G46">
+        <v>146.37831805536101</v>
+      </c>
+      <c r="H46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>27776</v>
+      </c>
+      <c r="B47" t="s">
+        <v>584</v>
+      </c>
+      <c r="C47" t="s">
+        <v>577</v>
+      </c>
+      <c r="D47" t="s">
+        <v>690</v>
+      </c>
+      <c r="E47">
+        <v>30070013</v>
+      </c>
+      <c r="F47" t="s">
+        <v>691</v>
+      </c>
+      <c r="G47">
+        <v>145.44192013306801</v>
+      </c>
+      <c r="H47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>27895</v>
+      </c>
+      <c r="B48" t="s">
+        <v>15</v>
+      </c>
+      <c r="C48" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" t="s">
+        <v>692</v>
+      </c>
+      <c r="E48">
+        <v>10459142</v>
+      </c>
+      <c r="F48" t="s">
+        <v>693</v>
+      </c>
+      <c r="G48">
+        <v>144.46626315264601</v>
+      </c>
+      <c r="H48" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>32188</v>
+      </c>
+      <c r="B49" t="s">
+        <v>584</v>
+      </c>
+      <c r="C49" t="s">
+        <v>577</v>
+      </c>
+      <c r="D49" t="s">
+        <v>694</v>
+      </c>
+      <c r="E49">
+        <v>20230426</v>
+      </c>
+      <c r="F49" t="s">
+        <v>695</v>
+      </c>
+      <c r="G49">
+        <v>142.477545845348</v>
+      </c>
+      <c r="H49" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1192</v>
+      </c>
+      <c r="B50" t="s">
+        <v>584</v>
+      </c>
+      <c r="C50" t="s">
+        <v>577</v>
+      </c>
+      <c r="D50" t="s">
+        <v>696</v>
+      </c>
+      <c r="E50">
+        <v>30067121</v>
+      </c>
+      <c r="F50" t="s">
+        <v>697</v>
+      </c>
+      <c r="G50">
+        <v>135.86962933852101</v>
+      </c>
+      <c r="H50" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>16702</v>
+      </c>
+      <c r="B51" t="s">
+        <v>584</v>
+      </c>
+      <c r="C51" t="s">
+        <v>577</v>
+      </c>
+      <c r="D51" t="s">
+        <v>698</v>
+      </c>
+      <c r="E51">
+        <v>14063435</v>
+      </c>
+      <c r="F51" t="s">
+        <v>699</v>
+      </c>
+      <c r="G51">
+        <v>135.41035623490799</v>
+      </c>
+      <c r="H51" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>16672</v>
+      </c>
+      <c r="B52" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" t="s">
+        <v>577</v>
+      </c>
+      <c r="D52" t="s">
+        <v>700</v>
+      </c>
+      <c r="E52">
+        <v>14063435</v>
+      </c>
+      <c r="F52" t="s">
+        <v>701</v>
+      </c>
+      <c r="G52">
+        <v>135.41035623490799</v>
+      </c>
+      <c r="H52" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1980</v>
+      </c>
+      <c r="B53" t="s">
+        <v>584</v>
+      </c>
+      <c r="C53" t="s">
+        <v>577</v>
+      </c>
+      <c r="D53" t="s">
+        <v>702</v>
+      </c>
+      <c r="E53">
+        <v>440202</v>
+      </c>
+      <c r="F53" t="s">
+        <v>703</v>
+      </c>
+      <c r="G53">
+        <v>134.937769301011</v>
+      </c>
+      <c r="H53">
+        <v>20140757</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>30384</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>14</v>
+      </c>
+      <c r="D54" t="s">
+        <v>704</v>
+      </c>
+      <c r="E54">
+        <v>30029963</v>
+      </c>
+      <c r="F54" t="s">
+        <v>705</v>
+      </c>
+      <c r="G54">
+        <v>133.352091425146</v>
+      </c>
+      <c r="H54" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>12628</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>706</v>
+      </c>
+      <c r="E55">
+        <v>20042254</v>
+      </c>
+      <c r="F55" t="s">
+        <v>707</v>
+      </c>
+      <c r="G55">
+        <v>131.84880497173799</v>
+      </c>
+      <c r="H55" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>12627</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>708</v>
+      </c>
+      <c r="E56">
+        <v>20042254</v>
+      </c>
+      <c r="F56" t="s">
+        <v>709</v>
+      </c>
+      <c r="G56">
+        <v>131.84880497173799</v>
+      </c>
+      <c r="H56" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>34174</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>710</v>
+      </c>
+      <c r="E57">
+        <v>20235444</v>
+      </c>
+      <c r="F57" t="s">
+        <v>711</v>
+      </c>
+      <c r="G57">
+        <v>130.807275711073</v>
+      </c>
+      <c r="H57" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>23816</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+      <c r="D58" t="s">
+        <v>712</v>
+      </c>
+      <c r="E58">
+        <v>20235444</v>
+      </c>
+      <c r="F58" t="s">
+        <v>713</v>
+      </c>
+      <c r="G58">
+        <v>130.807275711073</v>
+      </c>
+      <c r="H58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>35264</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>714</v>
+      </c>
+      <c r="E59">
+        <v>30070003</v>
+      </c>
+      <c r="F59" t="s">
+        <v>715</v>
+      </c>
+      <c r="G59">
+        <v>128.185446824797</v>
+      </c>
+      <c r="H59" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>15114</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>14</v>
+      </c>
+      <c r="D60" t="s">
+        <v>716</v>
+      </c>
+      <c r="E60">
+        <v>30040145</v>
+      </c>
+      <c r="F60" t="s">
+        <v>717</v>
+      </c>
+      <c r="G60">
+        <v>125.219281559001</v>
+      </c>
+      <c r="H60" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>15113</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61" t="s">
+        <v>14</v>
+      </c>
+      <c r="D61" t="s">
+        <v>718</v>
+      </c>
+      <c r="E61">
+        <v>30040145</v>
+      </c>
+      <c r="F61" t="s">
+        <v>719</v>
+      </c>
+      <c r="G61">
+        <v>125.219281559001</v>
+      </c>
+      <c r="H61" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>31694</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>720</v>
+      </c>
+      <c r="E62">
+        <v>30062735</v>
+      </c>
+      <c r="F62" t="s">
+        <v>721</v>
+      </c>
+      <c r="G62">
+        <v>123.327126900615</v>
+      </c>
+      <c r="H62" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>31695</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>722</v>
+      </c>
+      <c r="E63">
+        <v>30062735</v>
+      </c>
+      <c r="F63" t="s">
+        <v>723</v>
+      </c>
+      <c r="G63">
+        <v>123.327126900615</v>
+      </c>
+      <c r="H63" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>6493</v>
+      </c>
+      <c r="B64" t="s">
+        <v>584</v>
+      </c>
+      <c r="C64" t="s">
+        <v>577</v>
+      </c>
+      <c r="D64" t="s">
+        <v>724</v>
+      </c>
+      <c r="E64">
+        <v>907234</v>
+      </c>
+      <c r="F64" t="s">
+        <v>725</v>
+      </c>
+      <c r="G64">
+        <v>121.700472000224</v>
+      </c>
+      <c r="H64" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>6542</v>
+      </c>
+      <c r="B65" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" t="s">
+        <v>577</v>
+      </c>
+      <c r="D65" t="s">
+        <v>726</v>
+      </c>
+      <c r="E65">
+        <v>907234</v>
+      </c>
+      <c r="F65" t="s">
+        <v>727</v>
+      </c>
+      <c r="G65">
+        <v>121.700472000224</v>
+      </c>
+      <c r="H65" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>25357</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>728</v>
+      </c>
+      <c r="E66">
+        <v>441406</v>
+      </c>
+      <c r="F66" t="s">
+        <v>729</v>
+      </c>
+      <c r="G66">
+        <v>120.10239053847199</v>
+      </c>
+      <c r="H66">
+        <v>20041330</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>25360</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>730</v>
+      </c>
+      <c r="E67">
+        <v>441406</v>
+      </c>
+      <c r="F67" t="s">
+        <v>731</v>
+      </c>
+      <c r="G67">
+        <v>120.10239053847199</v>
+      </c>
+      <c r="H67">
+        <v>20041330</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>1979</v>
+      </c>
+      <c r="B68" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>732</v>
+      </c>
+      <c r="E68">
+        <v>20140757</v>
+      </c>
+      <c r="F68" t="s">
+        <v>733</v>
+      </c>
+      <c r="G68">
+        <v>119.30927534065</v>
+      </c>
+      <c r="H68" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>3285</v>
+      </c>
+      <c r="B69" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>734</v>
+      </c>
+      <c r="E69">
+        <v>30011526</v>
+      </c>
+      <c r="F69" t="s">
+        <v>735</v>
+      </c>
+      <c r="G69">
+        <v>118.49646406475</v>
+      </c>
+      <c r="H69">
+        <v>30011544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>23130</v>
+      </c>
+      <c r="B70" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>736</v>
+      </c>
+      <c r="E70">
+        <v>913167</v>
+      </c>
+      <c r="F70" t="s">
+        <v>737</v>
+      </c>
+      <c r="G70">
+        <v>117.356502583984</v>
+      </c>
+      <c r="H70" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>14567</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71" t="s">
+        <v>14</v>
+      </c>
+      <c r="D71" t="s">
+        <v>738</v>
+      </c>
+      <c r="E71">
+        <v>30003826</v>
+      </c>
+      <c r="F71" t="s">
+        <v>739</v>
+      </c>
+      <c r="G71">
+        <v>117.186430799831</v>
+      </c>
+      <c r="H71" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>14566</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" t="s">
+        <v>740</v>
+      </c>
+      <c r="E72">
+        <v>30003826</v>
+      </c>
+      <c r="F72" t="s">
+        <v>741</v>
+      </c>
+      <c r="G72">
+        <v>117.186430799831</v>
+      </c>
+      <c r="H72" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>27943</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>742</v>
+      </c>
+      <c r="E73">
+        <v>30074690</v>
+      </c>
+      <c r="F73" t="s">
+        <v>743</v>
+      </c>
+      <c r="G73">
+        <v>115.073515298443</v>
+      </c>
+      <c r="H73" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>34486</v>
+      </c>
+      <c r="B74" t="s">
+        <v>584</v>
+      </c>
+      <c r="C74" t="s">
+        <v>577</v>
+      </c>
+      <c r="D74" t="s">
+        <v>744</v>
+      </c>
+      <c r="E74">
+        <v>7731502</v>
+      </c>
+      <c r="F74" t="s">
+        <v>745</v>
+      </c>
+      <c r="G74">
+        <v>114.664688200535</v>
+      </c>
+      <c r="H74" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>16744</v>
+      </c>
+      <c r="B75" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" t="s">
+        <v>577</v>
+      </c>
+      <c r="D75" t="s">
+        <v>746</v>
+      </c>
+      <c r="E75">
+        <v>14063800</v>
+      </c>
+      <c r="F75" t="s">
+        <v>747</v>
+      </c>
+      <c r="G75">
+        <v>112.86873583900601</v>
+      </c>
+      <c r="H75" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>16746</v>
+      </c>
+      <c r="B76" t="s">
+        <v>584</v>
+      </c>
+      <c r="C76" t="s">
+        <v>577</v>
+      </c>
+      <c r="D76" t="s">
+        <v>748</v>
+      </c>
+      <c r="E76">
+        <v>14063800</v>
+      </c>
+      <c r="F76" t="s">
+        <v>749</v>
+      </c>
+      <c r="G76">
+        <v>112.86873583900601</v>
+      </c>
+      <c r="H76" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>30740</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>14</v>
+      </c>
+      <c r="D77" t="s">
+        <v>750</v>
+      </c>
+      <c r="E77">
+        <v>3093329</v>
+      </c>
+      <c r="F77" t="s">
+        <v>751</v>
+      </c>
+      <c r="G77">
+        <v>108.129894978175</v>
+      </c>
+      <c r="H77" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>30739</v>
+      </c>
+      <c r="B78" t="s">
+        <v>15</v>
+      </c>
+      <c r="C78" t="s">
+        <v>14</v>
+      </c>
+      <c r="D78" t="s">
+        <v>752</v>
+      </c>
+      <c r="E78">
+        <v>3093329</v>
+      </c>
+      <c r="F78" t="s">
+        <v>753</v>
+      </c>
+      <c r="G78">
+        <v>108.129894978175</v>
+      </c>
+      <c r="H78" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>3278</v>
+      </c>
+      <c r="B79" t="s">
+        <v>11</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>754</v>
+      </c>
+      <c r="E79">
+        <v>30037426</v>
+      </c>
+      <c r="F79" t="s">
+        <v>755</v>
+      </c>
+      <c r="G79">
+        <v>107.912614542488</v>
+      </c>
+      <c r="H79" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>33307</v>
+      </c>
+      <c r="B80" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" t="s">
+        <v>577</v>
+      </c>
+      <c r="D80" t="s">
+        <v>756</v>
+      </c>
+      <c r="E80">
+        <v>30004153</v>
+      </c>
+      <c r="F80" t="s">
+        <v>757</v>
+      </c>
+      <c r="G80">
+        <v>104.93169397030999</v>
+      </c>
+      <c r="H80" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>584</v>
+      </c>
+      <c r="C81" t="s">
+        <v>577</v>
+      </c>
+      <c r="D81" t="s">
+        <v>758</v>
+      </c>
+      <c r="E81">
+        <v>30004153</v>
+      </c>
+      <c r="F81" t="s">
+        <v>759</v>
+      </c>
+      <c r="G81">
+        <v>104.93169397030999</v>
+      </c>
+      <c r="H81" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>1458</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>760</v>
+      </c>
+      <c r="E82">
+        <v>20362226</v>
+      </c>
+      <c r="F82" t="s">
+        <v>761</v>
+      </c>
+      <c r="G82">
+        <v>103.15055400767901</v>
+      </c>
+      <c r="H82" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>1413</v>
+      </c>
+      <c r="B83" t="s">
+        <v>584</v>
+      </c>
+      <c r="C83" t="s">
+        <v>577</v>
+      </c>
+      <c r="D83" t="s">
+        <v>762</v>
+      </c>
+      <c r="E83">
+        <v>20362226</v>
+      </c>
+      <c r="F83" t="s">
+        <v>763</v>
+      </c>
+      <c r="G83">
+        <v>103.15055400767901</v>
+      </c>
+      <c r="H83" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>3731</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>764</v>
+      </c>
+      <c r="E84">
+        <v>20164338</v>
+      </c>
+      <c r="F84" t="s">
+        <v>765</v>
+      </c>
+      <c r="G84">
+        <v>102.247209403483</v>
+      </c>
+      <c r="H84" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>23414</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>766</v>
+      </c>
+      <c r="E85">
+        <v>30017340</v>
+      </c>
+      <c r="F85" t="s">
+        <v>767</v>
+      </c>
+      <c r="G85">
+        <v>102.103843517315</v>
+      </c>
+      <c r="H85" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>33160</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>768</v>
+      </c>
+      <c r="E86">
+        <v>14252787</v>
+      </c>
+      <c r="F86" t="s">
+        <v>769</v>
+      </c>
+      <c r="G86">
+        <v>101.38385873968301</v>
+      </c>
+      <c r="H86">
+        <v>14307786</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>33159</v>
+      </c>
+      <c r="B87" t="s">
+        <v>15</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>770</v>
+      </c>
+      <c r="E87">
+        <v>14252787</v>
+      </c>
+      <c r="F87" t="s">
+        <v>771</v>
+      </c>
+      <c r="G87">
+        <v>101.38385873968301</v>
+      </c>
+      <c r="H87">
+        <v>14307786</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>35538</v>
+      </c>
+      <c r="B88" t="s">
+        <v>584</v>
+      </c>
+      <c r="C88" t="s">
+        <v>577</v>
+      </c>
+      <c r="D88" t="s">
+        <v>772</v>
+      </c>
+      <c r="E88">
+        <v>30039431</v>
+      </c>
+      <c r="F88" t="s">
+        <v>773</v>
+      </c>
+      <c r="G88">
+        <v>101.316876322643</v>
+      </c>
+      <c r="H88" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>35537</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>774</v>
+      </c>
+      <c r="E89">
+        <v>30039431</v>
+      </c>
+      <c r="F89" t="s">
+        <v>775</v>
+      </c>
+      <c r="G89">
+        <v>101.316876322643</v>
+      </c>
+      <c r="H89" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>23118</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>776</v>
+      </c>
+      <c r="E90">
+        <v>30064879</v>
+      </c>
+      <c r="F90" t="s">
+        <v>777</v>
+      </c>
+      <c r="G90">
+        <v>99.922255445578102</v>
+      </c>
+      <c r="H90" t="s">
+        <v>367</v>
+      </c>
+      <c r="I90" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>2580</v>
+      </c>
+      <c r="B91" t="s">
+        <v>15</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>778</v>
+      </c>
+      <c r="E91">
+        <v>30064879</v>
+      </c>
+      <c r="F91" t="s">
+        <v>779</v>
+      </c>
+      <c r="G91">
+        <v>99.922255445578102</v>
+      </c>
+      <c r="H91" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>28922</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>780</v>
+      </c>
+      <c r="E92">
+        <v>442957</v>
+      </c>
+      <c r="F92" t="s">
+        <v>781</v>
+      </c>
+      <c r="G92">
+        <v>98.028419307202398</v>
+      </c>
+      <c r="H92">
+        <v>30085272</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>28921</v>
+      </c>
+      <c r="B93" t="s">
+        <v>584</v>
+      </c>
+      <c r="C93" t="s">
+        <v>577</v>
+      </c>
+      <c r="D93" t="s">
+        <v>782</v>
+      </c>
+      <c r="E93">
+        <v>442957</v>
+      </c>
+      <c r="F93" t="s">
+        <v>783</v>
+      </c>
+      <c r="G93">
+        <v>98.028419307202398</v>
+      </c>
+      <c r="H93">
+        <v>30085273</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>405</v>
+      </c>
+      <c r="B94" t="s">
+        <v>15</v>
+      </c>
+      <c r="C94" t="s">
+        <v>14</v>
+      </c>
+      <c r="D94" t="s">
+        <v>784</v>
+      </c>
+      <c r="E94">
+        <v>30034345</v>
+      </c>
+      <c r="F94" t="s">
+        <v>785</v>
+      </c>
+      <c r="G94">
+        <v>92.421179019919094</v>
+      </c>
+      <c r="H94" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>397</v>
+      </c>
+      <c r="B95" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>14</v>
+      </c>
+      <c r="D95" t="s">
+        <v>786</v>
+      </c>
+      <c r="E95">
+        <v>30034345</v>
+      </c>
+      <c r="F95" t="s">
+        <v>787</v>
+      </c>
+      <c r="G95">
+        <v>92.421179019919094</v>
+      </c>
+      <c r="H95" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>33001</v>
+      </c>
+      <c r="B96" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>788</v>
+      </c>
+      <c r="E96">
+        <v>20050211</v>
+      </c>
+      <c r="F96" t="s">
+        <v>789</v>
+      </c>
+      <c r="G96">
+        <v>91.134487364898007</v>
+      </c>
+      <c r="H96" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>33002</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>790</v>
+      </c>
+      <c r="E97">
+        <v>20050211</v>
+      </c>
+      <c r="F97" t="s">
+        <v>791</v>
+      </c>
+      <c r="G97">
+        <v>91.134487364898007</v>
+      </c>
+      <c r="H97" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>29175</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>792</v>
+      </c>
+      <c r="E98">
+        <v>30035854</v>
+      </c>
+      <c r="F98" t="s">
+        <v>793</v>
+      </c>
+      <c r="G98">
+        <v>86.473466839192696</v>
+      </c>
+      <c r="H98" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>29174</v>
+      </c>
+      <c r="B99" t="s">
+        <v>15</v>
+      </c>
+      <c r="C99" t="s">
+        <v>14</v>
+      </c>
+      <c r="D99" t="s">
+        <v>794</v>
+      </c>
+      <c r="E99">
+        <v>30035854</v>
+      </c>
+      <c r="F99" t="s">
+        <v>795</v>
+      </c>
+      <c r="G99">
+        <v>86.473466839192696</v>
+      </c>
+      <c r="H99" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>22250</v>
+      </c>
+      <c r="B100" t="s">
+        <v>15</v>
+      </c>
+      <c r="C100" t="s">
+        <v>14</v>
+      </c>
+      <c r="D100" t="s">
+        <v>796</v>
+      </c>
+      <c r="E100">
+        <v>10486741</v>
+      </c>
+      <c r="F100" t="s">
+        <v>797</v>
+      </c>
+      <c r="G100">
+        <v>85.0623305445543</v>
+      </c>
+      <c r="H100">
+        <v>10487714</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>22251</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>798</v>
+      </c>
+      <c r="E101">
+        <v>10486741</v>
+      </c>
+      <c r="F101" t="s">
+        <v>799</v>
+      </c>
+      <c r="G101">
+        <v>85.0623305445543</v>
+      </c>
+      <c r="H101">
+        <v>10487714</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9738,7 +12852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F25"/>
   <sheetViews>
@@ -10196,7 +13310,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
